--- a/BackTest/2019-10-25 BackTest PPT.xlsx
+++ b/BackTest/2019-10-25 BackTest PPT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>65</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-17.46031746031746</v>
+      </c>
       <c r="L12" t="n">
         <v>454.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>68</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-8.771929824561402</v>
+      </c>
       <c r="L13" t="n">
         <v>453.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>70</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-32</v>
+      </c>
       <c r="L14" t="n">
         <v>452.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>70</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>17.24137931034483</v>
+      </c>
       <c r="L15" t="n">
         <v>450.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>71</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20</v>
+      </c>
       <c r="L16" t="n">
         <v>451.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>71</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-60</v>
+      </c>
       <c r="L17" t="n">
         <v>451.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>71</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-45.45454545454545</v>
+      </c>
       <c r="L18" t="n">
         <v>450.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>71</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-25</v>
+      </c>
       <c r="L19" t="n">
         <v>449.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>71</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-25</v>
+      </c>
       <c r="L20" t="n">
         <v>449.5</v>
       </c>
@@ -1326,7 +1344,9 @@
       <c r="J21" t="n">
         <v>75</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>449.7</v>
       </c>
@@ -1379,7 +1399,9 @@
       <c r="J22" t="n">
         <v>84</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>75</v>
+      </c>
       <c r="L22" t="n">
         <v>450.6</v>
       </c>
@@ -1433,7 +1455,7 @@
         <v>97</v>
       </c>
       <c r="K23" t="n">
-        <v>-15.78947368421053</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L23" t="n">
         <v>450.5</v>
@@ -1488,7 +1510,7 @@
         <v>113</v>
       </c>
       <c r="K24" t="n">
-        <v>9.803921568627452</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L24" t="n">
         <v>452.2</v>
@@ -1543,7 +1565,7 @@
         <v>113</v>
       </c>
       <c r="K25" t="n">
-        <v>1.075268817204301</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L25" t="n">
         <v>453.9</v>
@@ -1598,7 +1620,7 @@
         <v>118</v>
       </c>
       <c r="K26" t="n">
-        <v>22.07792207792208</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L26" t="n">
         <v>455</v>
@@ -1653,7 +1675,7 @@
         <v>132</v>
       </c>
       <c r="K27" t="n">
-        <v>25.92592592592592</v>
+        <v>40.98360655737705</v>
       </c>
       <c r="L27" t="n">
         <v>457.5</v>
@@ -1708,7 +1730,7 @@
         <v>143</v>
       </c>
       <c r="K28" t="n">
-        <v>5.747126436781609</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="L28" t="n">
         <v>458.9</v>
@@ -1763,7 +1785,7 @@
         <v>149</v>
       </c>
       <c r="K29" t="n">
-        <v>16.85393258426966</v>
+        <v>25.64102564102564</v>
       </c>
       <c r="L29" t="n">
         <v>460.9</v>
@@ -1818,7 +1840,7 @@
         <v>154</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571428</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="L30" t="n">
         <v>462.4</v>
@@ -1867,7 +1889,7 @@
         <v>155</v>
       </c>
       <c r="K31" t="n">
-        <v>15.21739130434783</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="L31" t="n">
         <v>463.6</v>
@@ -1918,7 +1940,7 @@
         <v>155</v>
       </c>
       <c r="K32" t="n">
-        <v>13.33333333333333</v>
+        <v>27.58620689655172</v>
       </c>
       <c r="L32" t="n">
         <v>463.9</v>
@@ -1969,7 +1991,7 @@
         <v>155</v>
       </c>
       <c r="K33" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>465.5</v>
@@ -2020,7 +2042,7 @@
         <v>155</v>
       </c>
       <c r="K34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>465.5</v>
@@ -2071,7 +2093,7 @@
         <v>157</v>
       </c>
       <c r="K35" t="n">
-        <v>21.83908045977012</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L35" t="n">
         <v>465.7</v>
@@ -2122,7 +2144,7 @@
         <v>160</v>
       </c>
       <c r="K36" t="n">
-        <v>16.85393258426966</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L36" t="n">
         <v>466.1</v>
@@ -2173,7 +2195,7 @@
         <v>161</v>
       </c>
       <c r="K37" t="n">
-        <v>15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>465</v>
@@ -2224,7 +2246,7 @@
         <v>161</v>
       </c>
       <c r="K38" t="n">
-        <v>15.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L38" t="n">
         <v>465</v>
@@ -2275,7 +2297,7 @@
         <v>162</v>
       </c>
       <c r="K39" t="n">
-        <v>14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L39" t="n">
         <v>464.3</v>
@@ -2326,7 +2348,7 @@
         <v>166</v>
       </c>
       <c r="K40" t="n">
-        <v>17.89473684210526</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L40" t="n">
         <v>464.5</v>
@@ -2377,7 +2399,7 @@
         <v>170</v>
       </c>
       <c r="K41" t="n">
-        <v>17.89473684210526</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>465</v>
@@ -2428,7 +2450,7 @@
         <v>170</v>
       </c>
       <c r="K42" t="n">
-        <v>9.302325581395349</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>465.5</v>
@@ -2479,7 +2501,7 @@
         <v>174</v>
       </c>
       <c r="K43" t="n">
-        <v>32.46753246753246</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L43" t="n">
         <v>466.4</v>
@@ -2530,7 +2552,7 @@
         <v>174</v>
       </c>
       <c r="K44" t="n">
-        <v>14.75409836065574</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L44" t="n">
         <v>467.3</v>
@@ -2581,7 +2603,7 @@
         <v>187</v>
       </c>
       <c r="K45" t="n">
-        <v>29.72972972972973</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="L45" t="n">
         <v>469.3</v>
@@ -2632,7 +2654,7 @@
         <v>196</v>
       </c>
       <c r="K46" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L46" t="n">
         <v>470.7</v>
@@ -2683,7 +2705,7 @@
         <v>204</v>
       </c>
       <c r="K47" t="n">
-        <v>16.66666666666666</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L47" t="n">
         <v>473</v>
@@ -2734,7 +2756,7 @@
         <v>204</v>
       </c>
       <c r="K48" t="n">
-        <v>37.70491803278689</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L48" t="n">
         <v>475.3</v>
@@ -2785,7 +2807,7 @@
         <v>205</v>
       </c>
       <c r="K49" t="n">
-        <v>32.14285714285715</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L49" t="n">
         <v>477.8</v>
@@ -2836,7 +2858,7 @@
         <v>205</v>
       </c>
       <c r="K50" t="n">
-        <v>45.09803921568628</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L50" t="n">
         <v>479.9</v>
@@ -2887,7 +2909,7 @@
         <v>205</v>
       </c>
       <c r="K51" t="n">
-        <v>44</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L51" t="n">
         <v>481.6</v>
@@ -2938,7 +2960,7 @@
         <v>205</v>
       </c>
       <c r="K52" t="n">
-        <v>44</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L52" t="n">
         <v>483.3</v>
@@ -2989,7 +3011,7 @@
         <v>208</v>
       </c>
       <c r="K53" t="n">
-        <v>47.16981132075472</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L53" t="n">
         <v>484.9</v>
@@ -3040,7 +3062,7 @@
         <v>208</v>
       </c>
       <c r="K54" t="n">
-        <v>47.16981132075472</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>486.5</v>
@@ -3091,7 +3113,7 @@
         <v>213</v>
       </c>
       <c r="K55" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>487.3</v>
@@ -3142,7 +3164,7 @@
         <v>213</v>
       </c>
       <c r="K56" t="n">
-        <v>58.49056603773585</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>489</v>
@@ -3193,7 +3215,7 @@
         <v>213</v>
       </c>
       <c r="K57" t="n">
-        <v>61.53846153846154</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>489.9</v>
@@ -3244,7 +3266,7 @@
         <v>215</v>
       </c>
       <c r="K58" t="n">
-        <v>62.96296296296296</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>491</v>
@@ -3295,7 +3317,7 @@
         <v>215</v>
       </c>
       <c r="K59" t="n">
-        <v>66.0377358490566</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>492</v>
@@ -3346,7 +3368,7 @@
         <v>217</v>
       </c>
       <c r="K60" t="n">
-        <v>64.70588235294117</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
         <v>493.2</v>
@@ -3397,7 +3419,7 @@
         <v>218</v>
       </c>
       <c r="K61" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
         <v>494.5</v>
@@ -3448,7 +3470,7 @@
         <v>219</v>
       </c>
       <c r="K62" t="n">
-        <v>59.18367346938776</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L62" t="n">
         <v>495.7</v>
@@ -3499,7 +3521,7 @@
         <v>219</v>
       </c>
       <c r="K63" t="n">
-        <v>55.55555555555556</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L63" t="n">
         <v>496.6</v>
@@ -3550,7 +3572,7 @@
         <v>220</v>
       </c>
       <c r="K64" t="n">
-        <v>56.52173913043478</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L64" t="n">
         <v>497.6</v>
@@ -3601,7 +3623,7 @@
         <v>221</v>
       </c>
       <c r="K65" t="n">
-        <v>35.29411764705883</v>
+        <v>50</v>
       </c>
       <c r="L65" t="n">
         <v>498</v>
@@ -3652,7 +3674,7 @@
         <v>221</v>
       </c>
       <c r="K66" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L66" t="n">
         <v>498.4</v>
@@ -3703,7 +3725,7 @@
         <v>221</v>
       </c>
       <c r="K67" t="n">
-        <v>76.47058823529412</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>498.8</v>
@@ -3754,7 +3776,7 @@
         <v>221</v>
       </c>
       <c r="K68" t="n">
-        <v>76.47058823529412</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>499</v>
@@ -3805,7 +3827,7 @@
         <v>230</v>
       </c>
       <c r="K69" t="n">
-        <v>12</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L69" t="n">
         <v>498.3</v>
@@ -3856,7 +3878,7 @@
         <v>231</v>
       </c>
       <c r="K70" t="n">
-        <v>15.38461538461539</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L70" t="n">
         <v>497.5</v>
@@ -3907,7 +3929,7 @@
         <v>233</v>
       </c>
       <c r="K71" t="n">
-        <v>7.142857142857142</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L71" t="n">
         <v>496.4</v>
@@ -3958,7 +3980,7 @@
         <v>236</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.225806451612903</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L72" t="n">
         <v>495.1</v>
@@ -4009,7 +4031,7 @@
         <v>237</v>
       </c>
       <c r="K73" t="n">
-        <v>-10.3448275862069</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L73" t="n">
         <v>493.9</v>
@@ -4060,7 +4082,7 @@
         <v>241</v>
       </c>
       <c r="K74" t="n">
-        <v>-21.21212121212121</v>
+        <v>-80</v>
       </c>
       <c r="L74" t="n">
         <v>492.2</v>
@@ -4111,7 +4133,7 @@
         <v>241</v>
       </c>
       <c r="K75" t="n">
-        <v>-42.85714285714285</v>
+        <v>-80</v>
       </c>
       <c r="L75" t="n">
         <v>490.6</v>
@@ -4162,7 +4184,7 @@
         <v>241</v>
       </c>
       <c r="K76" t="n">
-        <v>-42.85714285714285</v>
+        <v>-80</v>
       </c>
       <c r="L76" t="n">
         <v>489</v>
@@ -4213,7 +4235,7 @@
         <v>241</v>
       </c>
       <c r="K77" t="n">
-        <v>-42.85714285714285</v>
+        <v>-80</v>
       </c>
       <c r="L77" t="n">
         <v>487.4</v>
@@ -4264,7 +4286,7 @@
         <v>243</v>
       </c>
       <c r="K78" t="n">
-        <v>-42.85714285714285</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L78" t="n">
         <v>486</v>
@@ -4315,7 +4337,7 @@
         <v>248</v>
       </c>
       <c r="K79" t="n">
-        <v>-51.51515151515152</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L79" t="n">
         <v>485</v>
@@ -4366,7 +4388,7 @@
         <v>248</v>
       </c>
       <c r="K80" t="n">
-        <v>-61.29032258064516</v>
+        <v>-60</v>
       </c>
       <c r="L80" t="n">
         <v>483.9</v>
@@ -4417,7 +4439,7 @@
         <v>248</v>
       </c>
       <c r="K81" t="n">
-        <v>-66.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L81" t="n">
         <v>483</v>
@@ -4468,7 +4490,7 @@
         <v>254</v>
       </c>
       <c r="K82" t="n">
-        <v>-37.14285714285715</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L82" t="n">
         <v>483</v>
@@ -4519,7 +4541,7 @@
         <v>254</v>
       </c>
       <c r="K83" t="n">
-        <v>-37.14285714285715</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L83" t="n">
         <v>482.9</v>
@@ -4570,7 +4592,7 @@
         <v>254</v>
       </c>
       <c r="K84" t="n">
-        <v>-41.17647058823529</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L84" t="n">
         <v>483.2</v>
@@ -4621,7 +4643,7 @@
         <v>256</v>
       </c>
       <c r="K85" t="n">
-        <v>-42.85714285714285</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L85" t="n">
         <v>483.3</v>
@@ -4672,7 +4694,7 @@
         <v>258</v>
       </c>
       <c r="K86" t="n">
-        <v>-45.94594594594595</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L86" t="n">
         <v>483.2</v>
@@ -4723,7 +4745,7 @@
         <v>262</v>
       </c>
       <c r="K87" t="n">
-        <v>-51.21951219512195</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L87" t="n">
         <v>482.7</v>
@@ -4774,7 +4796,7 @@
         <v>267</v>
       </c>
       <c r="K88" t="n">
-        <v>-34.78260869565217</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L88" t="n">
         <v>482.5</v>
@@ -4825,7 +4847,7 @@
         <v>269</v>
       </c>
       <c r="K89" t="n">
-        <v>-12.82051282051282</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L89" t="n">
         <v>483</v>
@@ -4876,7 +4898,7 @@
         <v>271</v>
       </c>
       <c r="K90" t="n">
-        <v>-20</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L90" t="n">
         <v>483.3</v>
@@ -4927,7 +4949,7 @@
         <v>273</v>
       </c>
       <c r="K91" t="n">
-        <v>-10</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L91" t="n">
         <v>483.8</v>
@@ -4978,7 +5000,7 @@
         <v>273</v>
       </c>
       <c r="K92" t="n">
-        <v>-2.702702702702703</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L92" t="n">
         <v>483.7</v>
@@ -5029,7 +5051,7 @@
         <v>273</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.555555555555555</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L93" t="n">
         <v>483.6</v>
@@ -5080,7 +5102,7 @@
         <v>276</v>
       </c>
       <c r="K94" t="n">
-        <v>-2.857142857142857</v>
+        <v>-10</v>
       </c>
       <c r="L94" t="n">
         <v>483.2</v>
@@ -5131,7 +5153,7 @@
         <v>280</v>
       </c>
       <c r="K95" t="n">
-        <v>7.692307692307693</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L95" t="n">
         <v>483.4</v>
@@ -5182,7 +5204,7 @@
         <v>283</v>
       </c>
       <c r="K96" t="n">
-        <v>14.28571428571428</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L96" t="n">
         <v>484.1</v>
@@ -5233,7 +5255,7 @@
         <v>293</v>
       </c>
       <c r="K97" t="n">
-        <v>30.76923076923077</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L97" t="n">
         <v>486.2</v>
@@ -5284,7 +5306,7 @@
         <v>294</v>
       </c>
       <c r="K98" t="n">
-        <v>25.49019607843137</v>
+        <v>52</v>
       </c>
       <c r="L98" t="n">
         <v>487.7</v>
@@ -5335,7 +5357,7 @@
         <v>309</v>
       </c>
       <c r="K99" t="n">
-        <v>4.918032786885246</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>487.5</v>
@@ -5386,7 +5408,7 @@
         <v>315</v>
       </c>
       <c r="K100" t="n">
-        <v>13.43283582089552</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L100" t="n">
         <v>488.1</v>
@@ -5437,7 +5459,7 @@
         <v>320</v>
       </c>
       <c r="K101" t="n">
-        <v>19.44444444444445</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L101" t="n">
         <v>489</v>
@@ -5488,7 +5510,7 @@
         <v>323</v>
       </c>
       <c r="K102" t="n">
-        <v>7.246376811594203</v>
+        <v>12</v>
       </c>
       <c r="L102" t="n">
         <v>489.6</v>
@@ -5539,7 +5561,7 @@
         <v>326</v>
       </c>
       <c r="K103" t="n">
-        <v>11.11111111111111</v>
+        <v>24</v>
       </c>
       <c r="L103" t="n">
         <v>490.5</v>
@@ -5590,7 +5612,7 @@
         <v>330</v>
       </c>
       <c r="K104" t="n">
-        <v>5.263157894736842</v>
+        <v>8</v>
       </c>
       <c r="L104" t="n">
         <v>491.3</v>
@@ -5641,7 +5663,7 @@
         <v>331</v>
       </c>
       <c r="K105" t="n">
-        <v>9.333333333333334</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>491.8</v>
@@ -5692,7 +5714,7 @@
         <v>331</v>
       </c>
       <c r="K106" t="n">
-        <v>12.32876712328767</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L106" t="n">
         <v>492</v>
@@ -5743,7 +5765,7 @@
         <v>332</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L107" t="n">
         <v>491.3</v>
@@ -5794,7 +5816,7 @@
         <v>336</v>
       </c>
       <c r="K108" t="n">
-        <v>18.84057971014493</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L108" t="n">
         <v>491.1</v>
@@ -5845,7 +5867,7 @@
         <v>337</v>
       </c>
       <c r="K109" t="n">
-        <v>14.70588235294118</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L109" t="n">
         <v>492.3</v>
@@ -5896,7 +5918,7 @@
         <v>337</v>
       </c>
       <c r="K110" t="n">
-        <v>18.18181818181818</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L110" t="n">
         <v>492.9</v>
@@ -5947,7 +5969,7 @@
         <v>338</v>
       </c>
       <c r="K111" t="n">
-        <v>13.84615384615385</v>
+        <v>20</v>
       </c>
       <c r="L111" t="n">
         <v>492.9</v>
@@ -5998,7 +6020,7 @@
         <v>339</v>
       </c>
       <c r="K112" t="n">
-        <v>15.15151515151515</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L112" t="n">
         <v>493.3</v>
@@ -6049,7 +6071,7 @@
         <v>340</v>
       </c>
       <c r="K113" t="n">
-        <v>13.43283582089552</v>
+        <v>40</v>
       </c>
       <c r="L113" t="n">
         <v>493.3</v>
@@ -6100,7 +6122,7 @@
         <v>340</v>
       </c>
       <c r="K114" t="n">
-        <v>18.75</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>493.7</v>
@@ -6151,7 +6173,7 @@
         <v>340</v>
       </c>
       <c r="K115" t="n">
-        <v>13.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>494</v>
@@ -6202,7 +6224,7 @@
         <v>340</v>
       </c>
       <c r="K116" t="n">
-        <v>8.771929824561402</v>
+        <v>25</v>
       </c>
       <c r="L116" t="n">
         <v>494.3</v>
@@ -6253,7 +6275,7 @@
         <v>341</v>
       </c>
       <c r="K117" t="n">
-        <v>-8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>494.6</v>
@@ -6304,7 +6326,7 @@
         <v>346</v>
       </c>
       <c r="K118" t="n">
-        <v>-15.38461538461539</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L118" t="n">
         <v>494</v>
@@ -6355,7 +6377,7 @@
         <v>346</v>
       </c>
       <c r="K119" t="n">
-        <v>18.91891891891892</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L119" t="n">
         <v>493.5</v>
@@ -6406,7 +6428,7 @@
         <v>350</v>
       </c>
       <c r="K120" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>493.4</v>
@@ -6457,7 +6479,7 @@
         <v>353</v>
       </c>
       <c r="K121" t="n">
-        <v>-9.090909090909092</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L121" t="n">
         <v>493.1</v>
@@ -6508,7 +6530,7 @@
         <v>353</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L122" t="n">
         <v>492.7</v>
@@ -6559,7 +6581,7 @@
         <v>353</v>
       </c>
       <c r="K123" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L123" t="n">
         <v>492.4</v>
@@ -6610,7 +6632,7 @@
         <v>359</v>
       </c>
       <c r="K124" t="n">
-        <v>24.13793103448276</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L124" t="n">
         <v>492.7</v>
@@ -6661,7 +6683,7 @@
         <v>359</v>
       </c>
       <c r="K125" t="n">
-        <v>21.42857142857143</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L125" t="n">
         <v>493</v>
@@ -6712,7 +6734,7 @@
         <v>359</v>
       </c>
       <c r="K126" t="n">
-        <v>21.42857142857143</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L126" t="n">
         <v>493.3</v>
@@ -6763,7 +6785,7 @@
         <v>360</v>
       </c>
       <c r="K127" t="n">
-        <v>21.42857142857143</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L127" t="n">
         <v>493.6</v>
@@ -6814,7 +6836,7 @@
         <v>360</v>
       </c>
       <c r="K128" t="n">
-        <v>8.333333333333332</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L128" t="n">
         <v>494.4</v>
@@ -6865,7 +6887,7 @@
         <v>360</v>
       </c>
       <c r="K129" t="n">
-        <v>13.04347826086956</v>
+        <v>40</v>
       </c>
       <c r="L129" t="n">
         <v>495.2</v>
@@ -6916,7 +6938,7 @@
         <v>360</v>
       </c>
       <c r="K130" t="n">
-        <v>13.04347826086956</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>495.6</v>
@@ -6967,7 +6989,7 @@
         <v>361</v>
       </c>
       <c r="K131" t="n">
-        <v>21.73913043478261</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
         <v>496.4</v>
@@ -7018,7 +7040,7 @@
         <v>361</v>
       </c>
       <c r="K132" t="n">
-        <v>18.18181818181818</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>497.2</v>
@@ -7069,7 +7091,7 @@
         <v>362</v>
       </c>
       <c r="K133" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>498.1</v>
@@ -7120,7 +7142,7 @@
         <v>364</v>
       </c>
       <c r="K134" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>498.6</v>
@@ -7171,7 +7193,7 @@
         <v>372</v>
       </c>
       <c r="K135" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>499.9</v>
@@ -7222,7 +7244,7 @@
         <v>372</v>
       </c>
       <c r="K136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>501.2</v>
@@ -7273,7 +7295,7 @@
         <v>373</v>
       </c>
       <c r="K137" t="n">
-        <v>43.75</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L137" t="n">
         <v>502.3</v>
@@ -7324,7 +7346,7 @@
         <v>374</v>
       </c>
       <c r="K138" t="n">
-        <v>64.28571428571429</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L138" t="n">
         <v>503.3</v>
@@ -7375,7 +7397,7 @@
         <v>379</v>
       </c>
       <c r="K139" t="n">
-        <v>69.6969696969697</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L139" t="n">
         <v>504.8</v>
@@ -7426,7 +7448,7 @@
         <v>384</v>
       </c>
       <c r="K140" t="n">
-        <v>41.17647058823529</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L140" t="n">
         <v>505.8</v>
@@ -7477,7 +7499,7 @@
         <v>386</v>
       </c>
       <c r="K141" t="n">
-        <v>57.57575757575758</v>
+        <v>44</v>
       </c>
       <c r="L141" t="n">
         <v>506.9</v>
@@ -7528,7 +7550,7 @@
         <v>390</v>
       </c>
       <c r="K142" t="n">
-        <v>62.16216216216216</v>
+        <v>50</v>
       </c>
       <c r="L142" t="n">
         <v>508.4</v>
@@ -7579,7 +7601,7 @@
         <v>393</v>
       </c>
       <c r="K143" t="n">
-        <v>50</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L143" t="n">
         <v>509.5</v>
@@ -7630,7 +7652,7 @@
         <v>397</v>
       </c>
       <c r="K144" t="n">
-        <v>47.36842105263158</v>
+        <v>20</v>
       </c>
       <c r="L144" t="n">
         <v>510.8</v>
@@ -7681,7 +7703,7 @@
         <v>397</v>
       </c>
       <c r="K145" t="n">
-        <v>47.36842105263158</v>
+        <v>20</v>
       </c>
       <c r="L145" t="n">
         <v>511.3</v>
@@ -7732,7 +7754,7 @@
         <v>401</v>
       </c>
       <c r="K146" t="n">
-        <v>52.38095238095239</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L146" t="n">
         <v>512.2</v>
@@ -7783,7 +7805,7 @@
         <v>409</v>
       </c>
       <c r="K147" t="n">
-        <v>26.53061224489796</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L147" t="n">
         <v>512.4</v>
@@ -7834,7 +7856,7 @@
         <v>417</v>
       </c>
       <c r="K148" t="n">
-        <v>36.84210526315789</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L148" t="n">
         <v>513.5</v>
@@ -7885,7 +7907,7 @@
         <v>418</v>
       </c>
       <c r="K149" t="n">
-        <v>34.48275862068966</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L149" t="n">
         <v>514</v>
@@ -7936,7 +7958,7 @@
         <v>423</v>
       </c>
       <c r="K150" t="n">
-        <v>39.68253968253968</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L150" t="n">
         <v>515.5</v>
@@ -7987,7 +8009,7 @@
         <v>423</v>
       </c>
       <c r="K151" t="n">
-        <v>38.70967741935484</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L151" t="n">
         <v>516.8</v>
@@ -8038,7 +8060,7 @@
         <v>423</v>
       </c>
       <c r="K152" t="n">
-        <v>38.70967741935484</v>
+        <v>40</v>
       </c>
       <c r="L152" t="n">
         <v>517.7</v>
@@ -8089,7 +8111,7 @@
         <v>427</v>
       </c>
       <c r="K153" t="n">
-        <v>41.53846153846154</v>
+        <v>40</v>
       </c>
       <c r="L153" t="n">
         <v>519.3</v>
@@ -8140,7 +8162,7 @@
         <v>429</v>
       </c>
       <c r="K154" t="n">
-        <v>41.53846153846154</v>
+        <v>43.75</v>
       </c>
       <c r="L154" t="n">
         <v>520.7</v>
@@ -8242,7 +8264,7 @@
         <v>443</v>
       </c>
       <c r="K156" t="n">
-        <v>7.042253521126761</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L156" t="n">
         <v>521.6</v>
@@ -8293,7 +8315,7 @@
         <v>451</v>
       </c>
       <c r="K157" t="n">
-        <v>17.94871794871795</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L157" t="n">
         <v>522.8</v>
@@ -8344,7 +8366,7 @@
         <v>452</v>
       </c>
       <c r="K158" t="n">
-        <v>20.51282051282051</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L158" t="n">
         <v>523.3</v>
@@ -8395,7 +8417,7 @@
         <v>453</v>
       </c>
       <c r="K159" t="n">
-        <v>16.21621621621622</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L159" t="n">
         <v>524</v>
@@ -8446,7 +8468,7 @@
         <v>460</v>
       </c>
       <c r="K160" t="n">
-        <v>13.1578947368421</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L160" t="n">
         <v>523.5</v>
@@ -8497,7 +8519,7 @@
         <v>467</v>
       </c>
       <c r="K161" t="n">
-        <v>18.51851851851852</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L161" t="n">
         <v>523.7</v>
@@ -8548,7 +8570,7 @@
         <v>476</v>
       </c>
       <c r="K162" t="n">
-        <v>2.325581395348837</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L162" t="n">
         <v>523</v>
@@ -8599,7 +8621,7 @@
         <v>476</v>
       </c>
       <c r="K163" t="n">
-        <v>6.024096385542169</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L163" t="n">
         <v>521.9</v>
@@ -8650,7 +8672,7 @@
         <v>477</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L164" t="n">
         <v>520.5</v>
@@ -8701,7 +8723,7 @@
         <v>481</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.761904761904762</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L165" t="n">
         <v>518.8</v>
@@ -8752,7 +8774,7 @@
         <v>484</v>
       </c>
       <c r="K166" t="n">
-        <v>-6.024096385542169</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L166" t="n">
         <v>518.7</v>
@@ -8803,7 +8825,7 @@
         <v>487</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L167" t="n">
         <v>517.5</v>
@@ -8854,7 +8876,7 @@
         <v>490</v>
       </c>
       <c r="K168" t="n">
-        <v>-15.06849315068493</v>
+        <v>-45.94594594594595</v>
       </c>
       <c r="L168" t="n">
         <v>515.9</v>
@@ -8905,7 +8927,7 @@
         <v>507</v>
       </c>
       <c r="K169" t="n">
-        <v>-30.3370786516854</v>
+        <v>-57.44680851063831</v>
       </c>
       <c r="L169" t="n">
         <v>512.5</v>
@@ -8956,7 +8978,7 @@
         <v>512</v>
       </c>
       <c r="K170" t="n">
-        <v>-30.3370786516854</v>
+        <v>-64.44444444444444</v>
       </c>
       <c r="L170" t="n">
         <v>510.3</v>
@@ -9007,7 +9029,7 @@
         <v>516</v>
       </c>
       <c r="K171" t="n">
-        <v>-24.73118279569892</v>
+        <v>-40</v>
       </c>
       <c r="L171" t="n">
         <v>507.8</v>
@@ -9058,7 +9080,7 @@
         <v>517</v>
       </c>
       <c r="K172" t="n">
-        <v>-25.53191489361702</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L172" t="n">
         <v>506.1</v>
@@ -9109,7 +9131,7 @@
         <v>517</v>
       </c>
       <c r="K173" t="n">
-        <v>-31.11111111111111</v>
+        <v>-40</v>
       </c>
       <c r="L173" t="n">
         <v>504.4</v>
@@ -9160,7 +9182,7 @@
         <v>526</v>
       </c>
       <c r="K174" t="n">
-        <v>-40.20618556701031</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L174" t="n">
         <v>501.9</v>
@@ -9211,7 +9233,7 @@
         <v>534</v>
       </c>
       <c r="K175" t="n">
-        <v>-28.84615384615384</v>
+        <v>-32</v>
       </c>
       <c r="L175" t="n">
         <v>500.6</v>
@@ -9262,7 +9284,7 @@
         <v>537</v>
       </c>
       <c r="K176" t="n">
-        <v>-14.8936170212766</v>
+        <v>-20</v>
       </c>
       <c r="L176" t="n">
         <v>499.3</v>
@@ -9313,7 +9335,7 @@
         <v>540</v>
       </c>
       <c r="K177" t="n">
-        <v>-21.34831460674157</v>
+        <v>-8</v>
       </c>
       <c r="L177" t="n">
         <v>498.6</v>
@@ -9364,7 +9386,7 @@
         <v>540</v>
       </c>
       <c r="K178" t="n">
-        <v>-22.72727272727273</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L178" t="n">
         <v>498.2</v>
@@ -9415,7 +9437,7 @@
         <v>541</v>
       </c>
       <c r="K179" t="n">
-        <v>-25</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L179" t="n">
         <v>499.4</v>
@@ -9466,7 +9488,7 @@
         <v>541</v>
       </c>
       <c r="K180" t="n">
-        <v>-18.51851851851852</v>
+        <v>12</v>
       </c>
       <c r="L180" t="n">
         <v>500.1</v>
@@ -9517,7 +9539,7 @@
         <v>541</v>
       </c>
       <c r="K181" t="n">
-        <v>-29.72972972972973</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L181" t="n">
         <v>500.4</v>
@@ -9568,7 +9590,7 @@
         <v>541</v>
       </c>
       <c r="K182" t="n">
-        <v>-20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L182" t="n">
         <v>500.8</v>
@@ -9619,7 +9641,7 @@
         <v>544</v>
       </c>
       <c r="K183" t="n">
-        <v>-14.70588235294118</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L183" t="n">
         <v>501.5</v>
@@ -9670,7 +9692,7 @@
         <v>547</v>
       </c>
       <c r="K184" t="n">
-        <v>-8.571428571428571</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L184" t="n">
         <v>503.4</v>
@@ -9721,7 +9743,7 @@
         <v>548</v>
       </c>
       <c r="K185" t="n">
-        <v>-1.492537313432836</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L185" t="n">
         <v>504.6</v>
@@ -9772,7 +9794,7 @@
         <v>549</v>
       </c>
       <c r="K186" t="n">
-        <v>-4.615384615384616</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L186" t="n">
         <v>505.6</v>
@@ -9823,7 +9845,7 @@
         <v>553</v>
       </c>
       <c r="K187" t="n">
-        <v>6.060606060606061</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L187" t="n">
         <v>506.7</v>
@@ -9874,7 +9896,7 @@
         <v>553</v>
       </c>
       <c r="K188" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L188" t="n">
         <v>507.8</v>
@@ -9925,7 +9947,7 @@
         <v>557</v>
       </c>
       <c r="K189" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L189" t="n">
         <v>508.6</v>
@@ -9976,7 +9998,7 @@
         <v>557</v>
       </c>
       <c r="K190" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L190" t="n">
         <v>509.4</v>
@@ -10027,7 +10049,7 @@
         <v>562</v>
       </c>
       <c r="K191" t="n">
-        <v>34.78260869565217</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L191" t="n">
         <v>510.7</v>
@@ -10078,7 +10100,7 @@
         <v>562</v>
       </c>
       <c r="K192" t="n">
-        <v>37.77777777777778</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L192" t="n">
         <v>512</v>
@@ -10129,7 +10151,7 @@
         <v>562</v>
       </c>
       <c r="K193" t="n">
-        <v>37.77777777777778</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L193" t="n">
         <v>513</v>
@@ -10180,7 +10202,7 @@
         <v>566</v>
       </c>
       <c r="K194" t="n">
-        <v>55.00000000000001</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L194" t="n">
         <v>513.3</v>
@@ -10231,7 +10253,7 @@
         <v>566</v>
       </c>
       <c r="K195" t="n">
-        <v>43.75</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L195" t="n">
         <v>513.5</v>
@@ -10282,7 +10304,7 @@
         <v>570</v>
       </c>
       <c r="K196" t="n">
-        <v>45.45454545454545</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L196" t="n">
         <v>514</v>
@@ -10333,7 +10355,7 @@
         <v>570</v>
       </c>
       <c r="K197" t="n">
-        <v>40</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L197" t="n">
         <v>514.1</v>
@@ -10384,7 +10406,7 @@
         <v>575</v>
       </c>
       <c r="K198" t="n">
-        <v>48.57142857142857</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L198" t="n">
         <v>514.7</v>
@@ -10435,7 +10457,7 @@
         <v>577</v>
       </c>
       <c r="K199" t="n">
-        <v>44.44444444444444</v>
+        <v>40</v>
       </c>
       <c r="L199" t="n">
         <v>515.5</v>
@@ -10486,7 +10508,7 @@
         <v>577</v>
       </c>
       <c r="K200" t="n">
-        <v>44.44444444444444</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>516.3</v>
@@ -10537,7 +10559,7 @@
         <v>581</v>
       </c>
       <c r="K201" t="n">
-        <v>30</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L201" t="n">
         <v>516.2</v>
@@ -10588,7 +10610,7 @@
         <v>587</v>
       </c>
       <c r="K202" t="n">
-        <v>13.04347826086956</v>
+        <v>-28</v>
       </c>
       <c r="L202" t="n">
         <v>515.5</v>
@@ -10639,7 +10661,7 @@
         <v>588</v>
       </c>
       <c r="K203" t="n">
-        <v>4.545454545454546</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L203" t="n">
         <v>514.7</v>
@@ -10690,7 +10712,7 @@
         <v>589</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.761904761904762</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L204" t="n">
         <v>514.2</v>
@@ -10741,7 +10763,7 @@
         <v>591</v>
       </c>
       <c r="K205" t="n">
-        <v>-2.325581395348837</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>513.9</v>
@@ -10792,7 +10814,7 @@
         <v>594</v>
       </c>
       <c r="K206" t="n">
-        <v>-11.11111111111111</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L206" t="n">
         <v>512.9</v>
@@ -10843,7 +10865,7 @@
         <v>595</v>
       </c>
       <c r="K207" t="n">
-        <v>-23.80952380952381</v>
+        <v>-80</v>
       </c>
       <c r="L207" t="n">
         <v>511.8</v>
@@ -10894,7 +10916,7 @@
         <v>595</v>
       </c>
       <c r="K208" t="n">
-        <v>-23.80952380952381</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L208" t="n">
         <v>510.2</v>
@@ -10945,7 +10967,7 @@
         <v>595</v>
       </c>
       <c r="K209" t="n">
-        <v>-15.78947368421053</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L209" t="n">
         <v>508.8</v>
@@ -10996,7 +11018,7 @@
         <v>595</v>
       </c>
       <c r="K210" t="n">
-        <v>-15.78947368421053</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L210" t="n">
         <v>507.4</v>
@@ -11047,7 +11069,7 @@
         <v>599</v>
       </c>
       <c r="K211" t="n">
-        <v>-40.54054054054054</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L211" t="n">
         <v>506</v>
@@ -11098,7 +11120,7 @@
         <v>610</v>
       </c>
       <c r="K212" t="n">
-        <v>-8.333333333333332</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L212" t="n">
         <v>506.3</v>
@@ -11149,7 +11171,7 @@
         <v>611</v>
       </c>
       <c r="K213" t="n">
-        <v>-6.122448979591836</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L213" t="n">
         <v>506.8</v>
@@ -11200,7 +11222,7 @@
         <v>611</v>
       </c>
       <c r="K214" t="n">
-        <v>2.222222222222222</v>
+        <v>20</v>
       </c>
       <c r="L214" t="n">
         <v>507.4</v>
@@ -11251,7 +11273,7 @@
         <v>613</v>
       </c>
       <c r="K215" t="n">
-        <v>6.382978723404255</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L215" t="n">
         <v>508</v>
@@ -11302,7 +11324,7 @@
         <v>619</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L216" t="n">
         <v>508.3</v>
@@ -11353,7 +11375,7 @@
         <v>623</v>
       </c>
       <c r="K217" t="n">
-        <v>-5.660377358490567</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L217" t="n">
         <v>509.1</v>
@@ -11404,7 +11426,7 @@
         <v>623</v>
       </c>
       <c r="K218" t="n">
-        <v>-16.66666666666666</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L218" t="n">
         <v>509.9</v>
@@ -11455,7 +11477,7 @@
         <v>623</v>
       </c>
       <c r="K219" t="n">
-        <v>-13.04347826086956</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L219" t="n">
         <v>510.7</v>
@@ -11506,7 +11528,7 @@
         <v>625</v>
       </c>
       <c r="K220" t="n">
-        <v>-8.333333333333332</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L220" t="n">
         <v>511.7</v>
@@ -11557,7 +11579,7 @@
         <v>627</v>
       </c>
       <c r="K221" t="n">
-        <v>-4.347826086956522</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L221" t="n">
         <v>512.9</v>
@@ -11608,7 +11630,7 @@
         <v>629</v>
       </c>
       <c r="K222" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L222" t="n">
         <v>513.2</v>
@@ -11659,7 +11681,7 @@
         <v>634</v>
       </c>
       <c r="K223" t="n">
-        <v>4.347826086956522</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L223" t="n">
         <v>512.9</v>
@@ -11710,7 +11732,7 @@
         <v>638</v>
       </c>
       <c r="K224" t="n">
-        <v>-2.040816326530612</v>
+        <v>-36</v>
       </c>
       <c r="L224" t="n">
         <v>512.2</v>
@@ -11761,7 +11783,7 @@
         <v>638</v>
       </c>
       <c r="K225" t="n">
-        <v>-6.382978723404255</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L225" t="n">
         <v>511.3</v>
@@ -11812,7 +11834,7 @@
         <v>644</v>
       </c>
       <c r="K226" t="n">
-        <v>12</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L226" t="n">
         <v>511.6</v>
@@ -11863,7 +11885,7 @@
         <v>644</v>
       </c>
       <c r="K227" t="n">
-        <v>14.28571428571428</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L227" t="n">
         <v>511.5</v>
@@ -11914,7 +11936,7 @@
         <v>647</v>
       </c>
       <c r="K228" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L228" t="n">
         <v>511.1</v>
@@ -11965,7 +11987,7 @@
         <v>649</v>
       </c>
       <c r="K229" t="n">
-        <v>3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L229" t="n">
         <v>510.5</v>
@@ -12016,7 +12038,7 @@
         <v>649</v>
       </c>
       <c r="K230" t="n">
-        <v>3.703703703703703</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L230" t="n">
         <v>509.7</v>
@@ -12067,7 +12089,7 @@
         <v>650</v>
       </c>
       <c r="K231" t="n">
-        <v>9.803921568627452</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L231" t="n">
         <v>509</v>
@@ -12118,7 +12140,7 @@
         <v>653</v>
       </c>
       <c r="K232" t="n">
-        <v>-20.93023255813954</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L232" t="n">
         <v>507.8</v>
@@ -12169,7 +12191,7 @@
         <v>653</v>
       </c>
       <c r="K233" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L233" t="n">
         <v>507.1</v>
@@ -12220,7 +12242,7 @@
         <v>664</v>
       </c>
       <c r="K234" t="n">
-        <v>-39.62264150943396</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L234" t="n">
         <v>505.7</v>
@@ -12271,7 +12293,7 @@
         <v>666</v>
       </c>
       <c r="K235" t="n">
-        <v>-39.62264150943396</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L235" t="n">
         <v>504.5</v>
@@ -12322,7 +12344,7 @@
         <v>668</v>
       </c>
       <c r="K236" t="n">
-        <v>-34.69387755102041</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L236" t="n">
         <v>502.5</v>
@@ -12373,7 +12395,7 @@
         <v>670</v>
       </c>
       <c r="K237" t="n">
-        <v>-40.42553191489361</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L237" t="n">
         <v>500.7</v>
@@ -12424,7 +12446,7 @@
         <v>670</v>
       </c>
       <c r="K238" t="n">
-        <v>-40.42553191489361</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L238" t="n">
         <v>499.2</v>
@@ -12475,7 +12497,7 @@
         <v>674</v>
       </c>
       <c r="K239" t="n">
-        <v>-29.41176470588236</v>
+        <v>-36</v>
       </c>
       <c r="L239" t="n">
         <v>498.3</v>
@@ -12526,7 +12548,7 @@
         <v>674</v>
       </c>
       <c r="K240" t="n">
-        <v>-34.69387755102041</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L240" t="n">
         <v>497.4</v>
@@ -12577,7 +12599,7 @@
         <v>677</v>
       </c>
       <c r="K241" t="n">
-        <v>-36</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>496.3</v>
@@ -12628,7 +12650,7 @@
         <v>677</v>
       </c>
       <c r="K242" t="n">
-        <v>-41.66666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L242" t="n">
         <v>495.5</v>
@@ -12679,7 +12701,7 @@
         <v>677</v>
       </c>
       <c r="K243" t="n">
-        <v>-34.88372093023256</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L243" t="n">
         <v>494.7</v>
@@ -12730,7 +12752,7 @@
         <v>677</v>
       </c>
       <c r="K244" t="n">
-        <v>-28.2051282051282</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L244" t="n">
         <v>495</v>
@@ -12781,7 +12803,7 @@
         <v>678</v>
       </c>
       <c r="K245" t="n">
-        <v>-30</v>
+        <v>20</v>
       </c>
       <c r="L245" t="n">
         <v>495</v>
@@ -12832,7 +12854,7 @@
         <v>679</v>
       </c>
       <c r="K246" t="n">
-        <v>-54.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L246" t="n">
         <v>495.1</v>
@@ -12883,7 +12905,7 @@
         <v>681</v>
       </c>
       <c r="K247" t="n">
-        <v>-45.94594594594595</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L247" t="n">
         <v>495.2</v>
@@ -12934,7 +12956,7 @@
         <v>686</v>
       </c>
       <c r="K248" t="n">
-        <v>-48.71794871794872</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L248" t="n">
         <v>494.8</v>
@@ -12985,7 +13007,7 @@
         <v>691</v>
       </c>
       <c r="K249" t="n">
-        <v>-28.57142857142857</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L249" t="n">
         <v>494.5</v>
@@ -13036,7 +13058,7 @@
         <v>691</v>
       </c>
       <c r="K250" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>494.2</v>
@@ -13087,7 +13109,7 @@
         <v>695</v>
       </c>
       <c r="K251" t="n">
-        <v>-15.55555555555556</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L251" t="n">
         <v>494.6</v>
@@ -13138,7 +13160,7 @@
         <v>704</v>
       </c>
       <c r="K252" t="n">
-        <v>-25.49019607843137</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L252" t="n">
         <v>494.1</v>
@@ -13189,7 +13211,7 @@
         <v>706</v>
       </c>
       <c r="K253" t="n">
-        <v>-28.30188679245283</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L253" t="n">
         <v>493.4</v>
@@ -13240,7 +13262,7 @@
         <v>706</v>
       </c>
       <c r="K254" t="n">
-        <v>-9.523809523809524</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L254" t="n">
         <v>492.7</v>
@@ -13291,7 +13313,7 @@
         <v>706</v>
       </c>
       <c r="K255" t="n">
-        <v>-15</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L255" t="n">
         <v>492.1</v>
@@ -13342,7 +13364,7 @@
         <v>708</v>
       </c>
       <c r="K256" t="n">
-        <v>-15</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>491.4</v>
@@ -13393,7 +13415,7 @@
         <v>709</v>
       </c>
       <c r="K257" t="n">
-        <v>-17.94871794871795</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L257" t="n">
         <v>490.6</v>
@@ -13444,7 +13466,7 @@
         <v>709</v>
       </c>
       <c r="K258" t="n">
-        <v>-17.94871794871795</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L258" t="n">
         <v>490.3</v>
@@ -13495,7 +13517,7 @@
         <v>717</v>
       </c>
       <c r="K259" t="n">
-        <v>-6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>490.3</v>
@@ -13546,7 +13568,7 @@
         <v>720</v>
       </c>
       <c r="K260" t="n">
-        <v>-13.04347826086956</v>
+        <v>-28</v>
       </c>
       <c r="L260" t="n">
         <v>490</v>
@@ -13597,7 +13619,7 @@
         <v>721</v>
       </c>
       <c r="K261" t="n">
-        <v>-4.545454545454546</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L261" t="n">
         <v>489.4</v>
@@ -13648,7 +13670,7 @@
         <v>722</v>
       </c>
       <c r="K262" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L262" t="n">
         <v>489.6</v>
@@ -13699,7 +13721,7 @@
         <v>723</v>
       </c>
       <c r="K263" t="n">
-        <v>-4.347826086956522</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L263" t="n">
         <v>490.1</v>
@@ -13750,7 +13772,7 @@
         <v>724</v>
       </c>
       <c r="K264" t="n">
-        <v>-6.382978723404255</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L264" t="n">
         <v>490.5</v>
@@ -13801,7 +13823,7 @@
         <v>729</v>
       </c>
       <c r="K265" t="n">
-        <v>-13.72549019607843</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L265" t="n">
         <v>490.4</v>
@@ -13852,7 +13874,7 @@
         <v>734</v>
       </c>
       <c r="K266" t="n">
-        <v>-1.818181818181818</v>
+        <v>20</v>
       </c>
       <c r="L266" t="n">
         <v>491</v>
@@ -13903,7 +13925,7 @@
         <v>735</v>
       </c>
       <c r="K267" t="n">
-        <v>-3.703703703703703</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L267" t="n">
         <v>491.6</v>
@@ -13954,7 +13976,7 @@
         <v>736</v>
       </c>
       <c r="K268" t="n">
-        <v>4</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L268" t="n">
         <v>492.1</v>
@@ -14005,7 +14027,7 @@
         <v>741</v>
       </c>
       <c r="K269" t="n">
-        <v>-16</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L269" t="n">
         <v>491.3</v>
@@ -14056,7 +14078,7 @@
         <v>741</v>
       </c>
       <c r="K270" t="n">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="L270" t="n">
         <v>490.8</v>
@@ -14107,7 +14129,7 @@
         <v>748</v>
       </c>
       <c r="K271" t="n">
-        <v>-9.433962264150944</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L271" t="n">
         <v>490.9</v>
@@ -14158,7 +14180,7 @@
         <v>749</v>
       </c>
       <c r="K272" t="n">
-        <v>11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L272" t="n">
         <v>491.2</v>
@@ -14209,7 +14231,7 @@
         <v>749</v>
       </c>
       <c r="K273" t="n">
-        <v>16.27906976744186</v>
+        <v>12</v>
       </c>
       <c r="L273" t="n">
         <v>491.4</v>
@@ -14260,7 +14282,7 @@
         <v>756</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L274" t="n">
         <v>491</v>
@@ -14311,7 +14333,7 @@
         <v>756</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L275" t="n">
         <v>491.1</v>
@@ -14362,7 +14384,7 @@
         <v>757</v>
       </c>
       <c r="K276" t="n">
-        <v>6.122448979591836</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L276" t="n">
         <v>490.8</v>
@@ -14413,7 +14435,7 @@
         <v>763</v>
       </c>
       <c r="K277" t="n">
-        <v>14.81481481481481</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>491</v>
@@ -14464,7 +14486,7 @@
         <v>764</v>
       </c>
       <c r="K278" t="n">
-        <v>16.36363636363636</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L278" t="n">
         <v>491.4</v>
@@ -14515,7 +14537,7 @@
         <v>764</v>
       </c>
       <c r="K279" t="n">
-        <v>2.127659574468085</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L279" t="n">
         <v>492.3</v>
@@ -14566,7 +14588,7 @@
         <v>764</v>
       </c>
       <c r="K280" t="n">
-        <v>9.090909090909092</v>
+        <v>12.5</v>
       </c>
       <c r="L280" t="n">
         <v>493.2</v>
@@ -14617,7 +14639,7 @@
         <v>766</v>
       </c>
       <c r="K281" t="n">
-        <v>11.11111111111111</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L281" t="n">
         <v>493.6</v>
@@ -14668,7 +14690,7 @@
         <v>768</v>
       </c>
       <c r="K282" t="n">
-        <v>8.695652173913043</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L282" t="n">
         <v>493.7</v>
@@ -14719,7 +14741,7 @@
         <v>770</v>
       </c>
       <c r="K283" t="n">
-        <v>10.63829787234043</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L283" t="n">
         <v>494</v>
@@ -14770,7 +14792,7 @@
         <v>771</v>
       </c>
       <c r="K284" t="n">
-        <v>14.8936170212766</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>495.1</v>
@@ -14821,7 +14843,7 @@
         <v>772</v>
       </c>
       <c r="K285" t="n">
-        <v>25.58139534883721</v>
+        <v>60</v>
       </c>
       <c r="L285" t="n">
         <v>496.1</v>
@@ -14872,7 +14894,7 @@
         <v>772</v>
       </c>
       <c r="K286" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>497</v>
@@ -14923,7 +14945,7 @@
         <v>772</v>
       </c>
       <c r="K287" t="n">
-        <v>13.51351351351351</v>
+        <v>25</v>
       </c>
       <c r="L287" t="n">
         <v>497.3</v>
@@ -14974,7 +14996,7 @@
         <v>780</v>
       </c>
       <c r="K288" t="n">
-        <v>-4.545454545454546</v>
+        <v>-37.5</v>
       </c>
       <c r="L288" t="n">
         <v>496.7</v>
@@ -15025,7 +15047,7 @@
         <v>781</v>
       </c>
       <c r="K289" t="n">
-        <v>10</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L289" t="n">
         <v>496.2</v>
@@ -15076,7 +15098,7 @@
         <v>782</v>
       </c>
       <c r="K290" t="n">
-        <v>7.317073170731707</v>
+        <v>-50</v>
       </c>
       <c r="L290" t="n">
         <v>495.6</v>
@@ -15127,7 +15149,7 @@
         <v>783</v>
       </c>
       <c r="K291" t="n">
-        <v>-14.28571428571428</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L291" t="n">
         <v>494.7</v>
@@ -15178,7 +15200,7 @@
         <v>784</v>
       </c>
       <c r="K292" t="n">
-        <v>-14.28571428571428</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L292" t="n">
         <v>494.1</v>
@@ -15229,7 +15251,7 @@
         <v>786</v>
       </c>
       <c r="K293" t="n">
-        <v>-8.108108108108109</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L293" t="n">
         <v>493.5</v>
@@ -15280,7 +15302,7 @@
         <v>786</v>
       </c>
       <c r="K294" t="n">
-        <v>13.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L294" t="n">
         <v>492.8</v>
@@ -15331,7 +15353,7 @@
         <v>789</v>
       </c>
       <c r="K295" t="n">
-        <v>3.03030303030303</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L295" t="n">
         <v>491.9</v>
@@ -15382,7 +15404,7 @@
         <v>789</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L296" t="n">
         <v>491</v>
@@ -15433,7 +15455,7 @@
         <v>797</v>
       </c>
       <c r="K297" t="n">
-        <v>5.88235294117647</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L297" t="n">
         <v>490.9</v>
@@ -15484,7 +15506,7 @@
         <v>798</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L298" t="n">
         <v>491.5</v>
@@ -15535,7 +15557,7 @@
         <v>798</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L299" t="n">
         <v>492</v>
@@ -15586,7 +15608,7 @@
         <v>798</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L300" t="n">
         <v>492.6</v>
@@ -15637,7 +15659,7 @@
         <v>804</v>
       </c>
       <c r="K301" t="n">
-        <v>-21.05263157894737</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>492.7</v>
@@ -15688,7 +15710,7 @@
         <v>804</v>
       </c>
       <c r="K302" t="n">
-        <v>-16.66666666666666</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L302" t="n">
         <v>492.7</v>
@@ -15739,7 +15761,7 @@
         <v>805</v>
       </c>
       <c r="K303" t="n">
-        <v>-20</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L303" t="n">
         <v>492.6</v>
@@ -15790,7 +15812,7 @@
         <v>805</v>
       </c>
       <c r="K304" t="n">
-        <v>-23.52941176470588</v>
+        <v>12.5</v>
       </c>
       <c r="L304" t="n">
         <v>492.5</v>
@@ -15841,7 +15863,7 @@
         <v>806</v>
       </c>
       <c r="K305" t="n">
-        <v>-23.52941176470588</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L305" t="n">
         <v>492.6</v>
@@ -15892,7 +15914,7 @@
         <v>811</v>
       </c>
       <c r="K306" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L306" t="n">
         <v>493.2</v>
@@ -15994,7 +16016,7 @@
         <v>812</v>
       </c>
       <c r="K308" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L308" t="n">
         <v>492.8</v>
@@ -16045,7 +16067,7 @@
         <v>814</v>
       </c>
       <c r="K309" t="n">
-        <v>15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>492.8</v>
@@ -16096,7 +16118,7 @@
         <v>814</v>
       </c>
       <c r="K310" t="n">
-        <v>18.75</v>
+        <v>60</v>
       </c>
       <c r="L310" t="n">
         <v>492.8</v>
@@ -16147,7 +16169,7 @@
         <v>816</v>
       </c>
       <c r="K311" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L311" t="n">
         <v>493.6</v>
@@ -16198,7 +16220,7 @@
         <v>817</v>
       </c>
       <c r="K312" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L312" t="n">
         <v>494.5</v>
@@ -16249,7 +16271,7 @@
         <v>817</v>
       </c>
       <c r="K313" t="n">
-        <v>22.58064516129032</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L313" t="n">
         <v>495.3</v>
@@ -16300,7 +16322,7 @@
         <v>817</v>
       </c>
       <c r="K314" t="n">
-        <v>22.58064516129032</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L314" t="n">
         <v>496.1</v>
@@ -16351,7 +16373,7 @@
         <v>820</v>
       </c>
       <c r="K315" t="n">
-        <v>41.93548387096774</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L315" t="n">
         <v>497.3</v>
@@ -16402,7 +16424,7 @@
         <v>821</v>
       </c>
       <c r="K316" t="n">
-        <v>43.75</v>
+        <v>80</v>
       </c>
       <c r="L316" t="n">
         <v>498.1</v>
@@ -16453,7 +16475,7 @@
         <v>828</v>
       </c>
       <c r="K317" t="n">
-        <v>41.93548387096774</v>
+        <v>100</v>
       </c>
       <c r="L317" t="n">
         <v>499.6</v>
@@ -16504,7 +16526,7 @@
         <v>835</v>
       </c>
       <c r="K318" t="n">
-        <v>18.91891891891892</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>500.5</v>
@@ -16555,7 +16577,7 @@
         <v>835</v>
       </c>
       <c r="K319" t="n">
-        <v>18.91891891891892</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L319" t="n">
         <v>501.2</v>
@@ -16606,7 +16628,7 @@
         <v>839</v>
       </c>
       <c r="K320" t="n">
-        <v>26.82926829268293</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L320" t="n">
         <v>502.3</v>
@@ -16657,7 +16679,7 @@
         <v>846</v>
       </c>
       <c r="K321" t="n">
-        <v>23.80952380952381</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L321" t="n">
         <v>502.5</v>
@@ -16708,7 +16730,7 @@
         <v>853</v>
       </c>
       <c r="K322" t="n">
-        <v>34.69387755102041</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L322" t="n">
         <v>503.3</v>
@@ -16759,7 +16781,7 @@
         <v>854</v>
       </c>
       <c r="K323" t="n">
-        <v>30.61224489795918</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L323" t="n">
         <v>504</v>
@@ -16810,7 +16832,7 @@
         <v>854</v>
       </c>
       <c r="K324" t="n">
-        <v>30.61224489795918</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L324" t="n">
         <v>504.7</v>
@@ -16861,7 +16883,7 @@
         <v>859</v>
       </c>
       <c r="K325" t="n">
-        <v>39.62264150943396</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L325" t="n">
         <v>505.6</v>
@@ -16912,7 +16934,7 @@
         <v>867</v>
       </c>
       <c r="K326" t="n">
-        <v>14.28571428571428</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L326" t="n">
         <v>505.6</v>
@@ -16963,7 +16985,7 @@
         <v>874</v>
       </c>
       <c r="K327" t="n">
-        <v>23.80952380952381</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L327" t="n">
         <v>505.6</v>
@@ -17014,7 +17036,7 @@
         <v>882</v>
       </c>
       <c r="K328" t="n">
-        <v>11.42857142857143</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L328" t="n">
         <v>505.5</v>
@@ -17065,7 +17087,7 @@
         <v>893</v>
       </c>
       <c r="K329" t="n">
-        <v>21.51898734177215</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L329" t="n">
         <v>506.5</v>
@@ -17116,7 +17138,7 @@
         <v>894</v>
       </c>
       <c r="K330" t="n">
-        <v>22.5</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L330" t="n">
         <v>507.2</v>
@@ -17167,7 +17189,7 @@
         <v>894</v>
       </c>
       <c r="K331" t="n">
-        <v>20.51282051282051</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L331" t="n">
         <v>508.6</v>
@@ -17218,7 +17240,7 @@
         <v>894</v>
       </c>
       <c r="K332" t="n">
-        <v>19.48051948051948</v>
+        <v>20</v>
       </c>
       <c r="L332" t="n">
         <v>509.3</v>
@@ -17269,7 +17291,7 @@
         <v>894</v>
       </c>
       <c r="K333" t="n">
-        <v>19.48051948051948</v>
+        <v>20</v>
       </c>
       <c r="L333" t="n">
         <v>510.1</v>
@@ -17320,7 +17342,7 @@
         <v>906</v>
       </c>
       <c r="K334" t="n">
-        <v>3.370786516853932</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L334" t="n">
         <v>509.7</v>
@@ -17371,7 +17393,7 @@
         <v>910</v>
       </c>
       <c r="K335" t="n">
-        <v>-4.444444444444445</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L335" t="n">
         <v>508.4</v>
@@ -17422,7 +17444,7 @@
         <v>914</v>
       </c>
       <c r="K336" t="n">
-        <v>-9.67741935483871</v>
+        <v>-40</v>
       </c>
       <c r="L336" t="n">
         <v>507.5</v>
@@ -17473,7 +17495,7 @@
         <v>915</v>
       </c>
       <c r="K337" t="n">
-        <v>-17.24137931034483</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L337" t="n">
         <v>506</v>
@@ -17524,7 +17546,7 @@
         <v>926</v>
       </c>
       <c r="K338" t="n">
-        <v>3.296703296703297</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L338" t="n">
         <v>506.4</v>
@@ -17575,7 +17597,7 @@
         <v>927</v>
       </c>
       <c r="K339" t="n">
-        <v>2.173913043478261</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L339" t="n">
         <v>505.6</v>
@@ -17626,7 +17648,7 @@
         <v>943</v>
       </c>
       <c r="K340" t="n">
-        <v>-17.30769230769231</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L340" t="n">
         <v>503.1</v>
@@ -17677,7 +17699,7 @@
         <v>945</v>
       </c>
       <c r="K341" t="n">
-        <v>-9.090909090909092</v>
+        <v>-45.09803921568628</v>
       </c>
       <c r="L341" t="n">
         <v>500.8</v>
@@ -17728,7 +17750,7 @@
         <v>945</v>
       </c>
       <c r="K342" t="n">
-        <v>-17.39130434782609</v>
+        <v>-45.09803921568628</v>
       </c>
       <c r="L342" t="n">
         <v>498.5</v>
@@ -17779,7 +17801,7 @@
         <v>949</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.57894736842105</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L343" t="n">
         <v>496.6</v>
@@ -17830,7 +17852,7 @@
         <v>958</v>
       </c>
       <c r="K344" t="n">
-        <v>-1.923076923076923</v>
+        <v>12.5</v>
       </c>
       <c r="L344" t="n">
         <v>496.8</v>
@@ -17881,7 +17903,7 @@
         <v>960</v>
       </c>
       <c r="K345" t="n">
-        <v>-8.91089108910891</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L345" t="n">
         <v>497.2</v>
@@ -17932,7 +17954,7 @@
         <v>970</v>
       </c>
       <c r="K346" t="n">
-        <v>-10.67961165048544</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L346" t="n">
         <v>497</v>
@@ -17983,7 +18005,7 @@
         <v>971</v>
       </c>
       <c r="K347" t="n">
-        <v>-17.52577319587629</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L347" t="n">
         <v>496.8</v>
@@ -18034,7 +18056,7 @@
         <v>971</v>
       </c>
       <c r="K348" t="n">
-        <v>-10.1123595505618</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L348" t="n">
         <v>495.5</v>
@@ -18085,7 +18107,7 @@
         <v>972</v>
       </c>
       <c r="K349" t="n">
-        <v>-24.05063291139241</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L349" t="n">
         <v>494.4</v>
@@ -18136,7 +18158,7 @@
         <v>974</v>
       </c>
       <c r="K350" t="n">
-        <v>-22.5</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L350" t="n">
         <v>495.1</v>
@@ -18187,7 +18209,7 @@
         <v>975</v>
       </c>
       <c r="K351" t="n">
-        <v>-20.98765432098765</v>
+        <v>20</v>
       </c>
       <c r="L351" t="n">
         <v>495.7</v>
@@ -18238,7 +18260,7 @@
         <v>975</v>
       </c>
       <c r="K352" t="n">
-        <v>-20.98765432098765</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L352" t="n">
         <v>496.3</v>
@@ -18289,7 +18311,7 @@
         <v>976</v>
       </c>
       <c r="K353" t="n">
-        <v>-21.95121951219512</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L353" t="n">
         <v>496.4</v>
@@ -18340,7 +18362,7 @@
         <v>976</v>
       </c>
       <c r="K354" t="n">
-        <v>-8.571428571428571</v>
+        <v>-37.5</v>
       </c>
       <c r="L354" t="n">
         <v>495.6</v>
@@ -18391,7 +18413,7 @@
         <v>979</v>
       </c>
       <c r="K355" t="n">
-        <v>-7.246376811594203</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L355" t="n">
         <v>494.7</v>
@@ -18442,7 +18464,7 @@
         <v>982</v>
       </c>
       <c r="K356" t="n">
-        <v>2.941176470588235</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L356" t="n">
         <v>495.1</v>
@@ -18493,7 +18515,7 @@
         <v>985</v>
       </c>
       <c r="K357" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>495.1</v>
@@ -18544,7 +18566,7 @@
         <v>991</v>
       </c>
       <c r="K358" t="n">
-        <v>-29.23076923076923</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L358" t="n">
         <v>494.5</v>
@@ -18595,7 +18617,7 @@
         <v>994</v>
       </c>
       <c r="K359" t="n">
-        <v>-31.34328358208955</v>
+        <v>-60</v>
       </c>
       <c r="L359" t="n">
         <v>493.5</v>
@@ -18646,7 +18668,7 @@
         <v>1000</v>
       </c>
       <c r="K360" t="n">
-        <v>1.754385964912281</v>
+        <v>-28</v>
       </c>
       <c r="L360" t="n">
         <v>492.9</v>
@@ -18697,7 +18719,7 @@
         <v>1000</v>
       </c>
       <c r="K361" t="n">
-        <v>-1.818181818181818</v>
+        <v>-28</v>
       </c>
       <c r="L361" t="n">
         <v>492.2</v>
@@ -18748,7 +18770,7 @@
         <v>1001</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L362" t="n">
         <v>491.6</v>
@@ -18799,7 +18821,7 @@
         <v>1002</v>
       </c>
       <c r="K363" t="n">
-        <v>-5.660377358490567</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L363" t="n">
         <v>491.2</v>
@@ -18850,7 +18872,7 @@
         <v>1003</v>
       </c>
       <c r="K364" t="n">
-        <v>-24.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>490.9</v>
@@ -18901,7 +18923,7 @@
         <v>1003</v>
       </c>
       <c r="K365" t="n">
-        <v>-20.93023255813954</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L365" t="n">
         <v>490.9</v>
@@ -18952,7 +18974,7 @@
         <v>1004</v>
       </c>
       <c r="K366" t="n">
-        <v>5.88235294117647</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L366" t="n">
         <v>490.7</v>
@@ -19003,7 +19025,7 @@
         <v>1007</v>
       </c>
       <c r="K367" t="n">
-        <v>-5.555555555555555</v>
+        <v>25</v>
       </c>
       <c r="L367" t="n">
         <v>490.5</v>
@@ -19054,7 +19076,7 @@
         <v>1011</v>
       </c>
       <c r="K368" t="n">
-        <v>5</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L368" t="n">
         <v>491.3</v>
@@ -19105,7 +19127,7 @@
         <v>1015</v>
       </c>
       <c r="K369" t="n">
-        <v>-6.976744186046512</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L369" t="n">
         <v>492</v>
@@ -19156,7 +19178,7 @@
         <v>1024</v>
       </c>
       <c r="K370" t="n">
-        <v>8</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L370" t="n">
         <v>493</v>
@@ -19207,7 +19229,7 @@
         <v>1028</v>
       </c>
       <c r="K371" t="n">
-        <v>13.20754716981132</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L371" t="n">
         <v>494.4</v>
@@ -19258,7 +19280,7 @@
         <v>1029</v>
       </c>
       <c r="K372" t="n">
-        <v>11.11111111111111</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L372" t="n">
         <v>495.6</v>
@@ -19309,7 +19331,7 @@
         <v>1039</v>
       </c>
       <c r="K373" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>495.7</v>
@@ -19360,7 +19382,7 @@
         <v>1041</v>
       </c>
       <c r="K374" t="n">
-        <v>-1.538461538461539</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L374" t="n">
         <v>495.9</v>
@@ -19411,7 +19433,7 @@
         <v>1042</v>
       </c>
       <c r="K375" t="n">
-        <v>4.761904761904762</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L375" t="n">
         <v>496.2</v>
@@ -19462,7 +19484,7 @@
         <v>1047</v>
       </c>
       <c r="K376" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L376" t="n">
         <v>496.9</v>
@@ -19513,7 +19535,7 @@
         <v>1047</v>
       </c>
       <c r="K377" t="n">
-        <v>12.90322580645161</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L377" t="n">
         <v>497.9</v>
@@ -19564,7 +19586,7 @@
         <v>1058</v>
       </c>
       <c r="K378" t="n">
-        <v>4.477611940298507</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L378" t="n">
         <v>497.4</v>
@@ -19615,7 +19637,7 @@
         <v>1058</v>
       </c>
       <c r="K379" t="n">
-        <v>9.375</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L379" t="n">
         <v>497.3</v>
@@ -19666,7 +19688,7 @@
         <v>1068</v>
       </c>
       <c r="K380" t="n">
-        <v>14.70588235294118</v>
+        <v>-10</v>
       </c>
       <c r="L380" t="n">
         <v>497.3</v>
@@ -19717,7 +19739,7 @@
         <v>1069</v>
       </c>
       <c r="K381" t="n">
-        <v>13.04347826086956</v>
+        <v>-10</v>
       </c>
       <c r="L381" t="n">
         <v>496.8</v>
@@ -19768,7 +19790,7 @@
         <v>1073</v>
       </c>
       <c r="K382" t="n">
-        <v>5.555555555555555</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L382" t="n">
         <v>496</v>
@@ -19819,7 +19841,7 @@
         <v>1080</v>
       </c>
       <c r="K383" t="n">
-        <v>-5.128205128205128</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L383" t="n">
         <v>495.5</v>
@@ -19870,7 +19892,7 @@
         <v>1081</v>
       </c>
       <c r="K384" t="n">
-        <v>-7.692307692307693</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L384" t="n">
         <v>494.7</v>
@@ -19921,7 +19943,7 @@
         <v>1081</v>
       </c>
       <c r="K385" t="n">
-        <v>-7.692307692307693</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L385" t="n">
         <v>493.8</v>
@@ -19972,7 +19994,7 @@
         <v>1087</v>
       </c>
       <c r="K386" t="n">
-        <v>-1.204819277108434</v>
+        <v>-20</v>
       </c>
       <c r="L386" t="n">
         <v>493</v>
@@ -20023,7 +20045,7 @@
         <v>1093</v>
       </c>
       <c r="K387" t="n">
-        <v>-4.651162790697675</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L387" t="n">
         <v>491.6</v>
@@ -20074,7 +20096,7 @@
         <v>1100</v>
       </c>
       <c r="K388" t="n">
-        <v>-1.123595505617978</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L388" t="n">
         <v>492</v>
@@ -20125,7 +20147,7 @@
         <v>1101</v>
       </c>
       <c r="K389" t="n">
-        <v>2.325581395348837</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L389" t="n">
         <v>492.3</v>
@@ -20176,7 +20198,7 @@
         <v>1102</v>
       </c>
       <c r="K390" t="n">
-        <v>-7.692307692307693</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L390" t="n">
         <v>491.7</v>
@@ -20227,7 +20249,7 @@
         <v>1103</v>
       </c>
       <c r="K391" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>491.3</v>
@@ -20278,7 +20300,7 @@
         <v>1105</v>
       </c>
       <c r="K392" t="n">
-        <v>-13.1578947368421</v>
+        <v>20</v>
       </c>
       <c r="L392" t="n">
         <v>491.1</v>
@@ -20329,7 +20351,7 @@
         <v>1107</v>
       </c>
       <c r="K393" t="n">
-        <v>2.941176470588235</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L393" t="n">
         <v>491.8</v>
@@ -20380,7 +20402,7 @@
         <v>1109</v>
       </c>
       <c r="K394" t="n">
-        <v>-2.941176470588235</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L394" t="n">
         <v>492.4</v>
@@ -20431,7 +20453,7 @@
         <v>1110</v>
       </c>
       <c r="K395" t="n">
-        <v>-2.941176470588235</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L395" t="n">
         <v>493.1</v>
@@ -20482,7 +20504,7 @@
         <v>1118</v>
       </c>
       <c r="K396" t="n">
-        <v>-21.12676056338028</v>
+        <v>-4</v>
       </c>
       <c r="L396" t="n">
         <v>492.4</v>
@@ -20533,7 +20555,7 @@
         <v>1119</v>
       </c>
       <c r="K397" t="n">
-        <v>-19.44444444444445</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L397" t="n">
         <v>492.4</v>
@@ -20584,7 +20606,7 @@
         <v>1126</v>
       </c>
       <c r="K398" t="n">
-        <v>5.88235294117647</v>
+        <v>4</v>
       </c>
       <c r="L398" t="n">
         <v>492.4</v>
@@ -20635,7 +20657,7 @@
         <v>1126</v>
       </c>
       <c r="K399" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>492.5</v>
@@ -20686,7 +20708,7 @@
         <v>1126</v>
       </c>
       <c r="K400" t="n">
-        <v>-10.3448275862069</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L400" t="n">
         <v>492.5</v>
@@ -20737,7 +20759,7 @@
         <v>1128</v>
       </c>
       <c r="K401" t="n">
-        <v>-11.86440677966102</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L401" t="n">
         <v>492.2</v>
@@ -20788,7 +20810,7 @@
         <v>1132</v>
       </c>
       <c r="K402" t="n">
-        <v>1.694915254237288</v>
+        <v>4</v>
       </c>
       <c r="L402" t="n">
         <v>492.5</v>
@@ -20839,7 +20861,7 @@
         <v>1136</v>
       </c>
       <c r="K403" t="n">
-        <v>7.142857142857142</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L403" t="n">
         <v>492.2</v>
@@ -20890,7 +20912,7 @@
         <v>1137</v>
       </c>
       <c r="K404" t="n">
-        <v>10.71428571428571</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L404" t="n">
         <v>492.2</v>
@@ -20941,7 +20963,7 @@
         <v>1138</v>
       </c>
       <c r="K405" t="n">
-        <v>12.28070175438596</v>
+        <v>40</v>
       </c>
       <c r="L405" t="n">
         <v>492.2</v>
@@ -20992,7 +21014,7 @@
         <v>1138</v>
       </c>
       <c r="K406" t="n">
-        <v>1.96078431372549</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L406" t="n">
         <v>493</v>
@@ -21043,7 +21065,7 @@
         <v>1139</v>
       </c>
       <c r="K407" t="n">
-        <v>17.39130434782609</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L407" t="n">
         <v>493.8</v>
@@ -21094,7 +21116,7 @@
         <v>1140</v>
       </c>
       <c r="K408" t="n">
-        <v>5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L408" t="n">
         <v>494</v>
@@ -21145,7 +21167,7 @@
         <v>1140</v>
       </c>
       <c r="K409" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L409" t="n">
         <v>494.2</v>
@@ -21196,7 +21218,7 @@
         <v>1142</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L410" t="n">
         <v>494.2</v>
@@ -21247,7 +21269,7 @@
         <v>1145</v>
       </c>
       <c r="K411" t="n">
-        <v>4.761904761904762</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L411" t="n">
         <v>494.7</v>
@@ -21298,7 +21320,7 @@
         <v>1152</v>
       </c>
       <c r="K412" t="n">
-        <v>-6.382978723404255</v>
+        <v>-12.5</v>
       </c>
       <c r="L412" t="n">
         <v>494.1</v>
@@ -21349,7 +21371,7 @@
         <v>1160</v>
       </c>
       <c r="K413" t="n">
-        <v>5.660377358490567</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L413" t="n">
         <v>494.7</v>
@@ -21400,7 +21422,7 @@
         <v>1160</v>
       </c>
       <c r="K414" t="n">
-        <v>9.803921568627452</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L414" t="n">
         <v>495.2</v>
@@ -21451,7 +21473,7 @@
         <v>1160</v>
       </c>
       <c r="K415" t="n">
-        <v>8</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L415" t="n">
         <v>495.6</v>
@@ -21502,7 +21524,7 @@
         <v>1160</v>
       </c>
       <c r="K416" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L416" t="n">
         <v>496</v>
@@ -21553,7 +21575,7 @@
         <v>1167</v>
       </c>
       <c r="K417" t="n">
-        <v>8.333333333333332</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L417" t="n">
         <v>495.6</v>
@@ -21604,7 +21626,7 @@
         <v>1174</v>
       </c>
       <c r="K418" t="n">
-        <v>8.333333333333332</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L418" t="n">
         <v>495.8</v>
@@ -21655,7 +21677,7 @@
         <v>1176</v>
       </c>
       <c r="K419" t="n">
-        <v>4</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L419" t="n">
         <v>495.8</v>
@@ -21706,7 +21728,7 @@
         <v>1177</v>
       </c>
       <c r="K420" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>496.1</v>
@@ -21757,7 +21779,7 @@
         <v>1177</v>
       </c>
       <c r="K421" t="n">
-        <v>10.20408163265306</v>
+        <v>28</v>
       </c>
       <c r="L421" t="n">
         <v>496.1</v>
@@ -21808,7 +21830,7 @@
         <v>1177</v>
       </c>
       <c r="K422" t="n">
-        <v>2.222222222222222</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L422" t="n">
         <v>496.8</v>
@@ -21859,7 +21881,7 @@
         <v>1177</v>
       </c>
       <c r="K423" t="n">
-        <v>12.19512195121951</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L423" t="n">
         <v>496.7</v>
@@ -21910,7 +21932,7 @@
         <v>1178</v>
       </c>
       <c r="K424" t="n">
-        <v>12.19512195121951</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>496.7</v>
@@ -21961,7 +21983,7 @@
         <v>1178</v>
       </c>
       <c r="K425" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L425" t="n">
         <v>496.7</v>
@@ -22012,7 +22034,7 @@
         <v>1180</v>
       </c>
       <c r="K426" t="n">
-        <v>14.28571428571428</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L426" t="n">
         <v>496.9</v>
@@ -22063,7 +22085,7 @@
         <v>1180</v>
       </c>
       <c r="K427" t="n">
-        <v>12.19512195121951</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L427" t="n">
         <v>497.8</v>
@@ -22114,7 +22136,7 @@
         <v>1180</v>
       </c>
       <c r="K428" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L428" t="n">
         <v>498</v>
@@ -22165,7 +22187,7 @@
         <v>1180</v>
       </c>
       <c r="K429" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L429" t="n">
         <v>498.4</v>
@@ -22216,7 +22238,7 @@
         <v>1180</v>
       </c>
       <c r="K430" t="n">
-        <v>15.78947368421053</v>
+        <v>100</v>
       </c>
       <c r="L430" t="n">
         <v>498.7</v>
@@ -22267,7 +22289,7 @@
         <v>1184</v>
       </c>
       <c r="K431" t="n">
-        <v>-2.564102564102564</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L431" t="n">
         <v>498.6</v>
@@ -22318,7 +22340,7 @@
         <v>1192</v>
       </c>
       <c r="K432" t="n">
-        <v>35</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L432" t="n">
         <v>499.3</v>
@@ -22369,7 +22391,7 @@
         <v>1194</v>
       </c>
       <c r="K433" t="n">
-        <v>23.52941176470588</v>
+        <v>50</v>
       </c>
       <c r="L433" t="n">
         <v>500.2</v>
@@ -22420,7 +22442,7 @@
         <v>1196</v>
       </c>
       <c r="K434" t="n">
-        <v>27.77777777777778</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L434" t="n">
         <v>501.2</v>
@@ -22471,7 +22493,7 @@
         <v>1196</v>
       </c>
       <c r="K435" t="n">
-        <v>27.77777777777778</v>
+        <v>50</v>
       </c>
       <c r="L435" t="n">
         <v>502.2</v>
@@ -22522,7 +22544,7 @@
         <v>1200</v>
       </c>
       <c r="K436" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L436" t="n">
         <v>502.6</v>
@@ -22573,7 +22595,7 @@
         <v>1204</v>
       </c>
       <c r="K437" t="n">
-        <v>24.32432432432433</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>502.6</v>
@@ -22624,7 +22646,7 @@
         <v>1212</v>
       </c>
       <c r="K438" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L438" t="n">
         <v>501.8</v>
@@ -22675,7 +22697,7 @@
         <v>1220</v>
       </c>
       <c r="K439" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>501.8</v>
@@ -22726,7 +22748,7 @@
         <v>1221</v>
       </c>
       <c r="K440" t="n">
-        <v>9.090909090909092</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L440" t="n">
         <v>501.9</v>
@@ -22777,7 +22799,7 @@
         <v>1222</v>
       </c>
       <c r="K441" t="n">
-        <v>11.11111111111111</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L441" t="n">
         <v>502.5</v>
@@ -22828,7 +22850,7 @@
         <v>1222</v>
       </c>
       <c r="K442" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L442" t="n">
         <v>502.3</v>
@@ -22879,7 +22901,7 @@
         <v>1222</v>
       </c>
       <c r="K443" t="n">
-        <v>11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L443" t="n">
         <v>501.9</v>
@@ -22930,7 +22952,7 @@
         <v>1222</v>
       </c>
       <c r="K444" t="n">
-        <v>9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L444" t="n">
         <v>501.3</v>
@@ -22981,7 +23003,7 @@
         <v>1224</v>
       </c>
       <c r="K445" t="n">
-        <v>4.347826086956522</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L445" t="n">
         <v>500.5</v>
@@ -23083,7 +23105,7 @@
         <v>1227</v>
       </c>
       <c r="K447" t="n">
-        <v>6.382978723404255</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L447" t="n">
         <v>500.4</v>
@@ -23134,7 +23156,7 @@
         <v>1233</v>
       </c>
       <c r="K448" t="n">
-        <v>-5.660377358490567</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L448" t="n">
         <v>500.9</v>
@@ -23185,7 +23207,7 @@
         <v>1235</v>
       </c>
       <c r="K449" t="n">
-        <v>-1.818181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L449" t="n">
         <v>500.8</v>
@@ -23236,7 +23258,7 @@
         <v>1235</v>
       </c>
       <c r="K450" t="n">
-        <v>-1.818181818181818</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L450" t="n">
         <v>500.6</v>
@@ -23287,7 +23309,7 @@
         <v>1238</v>
       </c>
       <c r="K451" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="L451" t="n">
         <v>500</v>
@@ -23338,7 +23360,7 @@
         <v>1238</v>
       </c>
       <c r="K452" t="n">
-        <v>-17.39130434782609</v>
+        <v>-37.5</v>
       </c>
       <c r="L452" t="n">
         <v>499.4</v>
@@ -23389,7 +23411,7 @@
         <v>1239</v>
       </c>
       <c r="K453" t="n">
-        <v>-20</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L453" t="n">
         <v>498.9</v>
@@ -23440,7 +23462,7 @@
         <v>1239</v>
       </c>
       <c r="K454" t="n">
-        <v>-25.58139534883721</v>
+        <v>-20</v>
       </c>
       <c r="L454" t="n">
         <v>498.4</v>
@@ -23491,7 +23513,7 @@
         <v>1239</v>
       </c>
       <c r="K455" t="n">
-        <v>-25.58139534883721</v>
+        <v>-20</v>
       </c>
       <c r="L455" t="n">
         <v>498.1</v>
@@ -23542,7 +23564,7 @@
         <v>1240</v>
       </c>
       <c r="K456" t="n">
-        <v>-20</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L456" t="n">
         <v>497.7</v>
@@ -23593,7 +23615,7 @@
         <v>1240</v>
       </c>
       <c r="K457" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L457" t="n">
         <v>497</v>

--- a/BackTest/2019-10-25 BackTest PPT.xlsx
+++ b/BackTest/2019-10-25 BackTest PPT.xlsx
@@ -451,20 +451,14 @@
         <v>439.4833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>444</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>440.1333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>464</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>440.6333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>455</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>441.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>464</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>441.4833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>444</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>441.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>453</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>442.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>444</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>442.5333333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>454</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>442.9166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>451</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>443.3166666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>451</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>443.7666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>453</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>444.2333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>450</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>444.5166666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>449</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>444.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>447</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>445.1166666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>448</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>445.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>449</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>445.8833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>449</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>446.2666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>449</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>446.6666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>449</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>447.1333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>453</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>447.7833333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>453</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>448.1833333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>462</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>448.85</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>463</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>449.5166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>465</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>450.0166666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>460</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>450.6833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>464</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>451.1333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>474</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1604,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1643,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1682,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1760,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1799,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1838,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1877,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1916,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1955,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1994,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2033,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2072,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2111,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2189,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2228,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2267,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2302,15 +2064,11 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2345,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2384,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2423,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2462,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2501,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2540,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2575,15 +2309,11 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2614,15 +2344,11 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2657,12 +2383,10 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2725,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2795,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2865,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2900,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2935,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2970,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3005,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3040,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3110,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3947,14 +3671,20 @@
         <v>485</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>485</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3712,20 @@
         <v>485.3166666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>482</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4017,14 +3753,20 @@
         <v>485.7333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>486</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4059,7 +3801,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4094,7 +3840,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4129,7 +3879,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4164,7 +3918,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4199,7 +3957,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4234,7 +3996,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4269,7 +4035,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4304,7 +4074,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4339,7 +4113,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4374,7 +4152,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4409,7 +4191,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4444,7 +4230,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4479,7 +4269,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4308,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4549,7 +4347,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4584,7 +4386,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4619,7 +4425,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4654,7 +4464,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4689,7 +4503,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4724,7 +4542,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4759,7 +4581,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4794,7 +4620,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4829,7 +4659,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4864,7 +4698,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4899,7 +4737,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4934,7 +4776,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4969,7 +4815,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5004,7 +4854,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5039,7 +4893,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5074,7 +4932,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5109,7 +4971,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5144,7 +5010,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5179,7 +5049,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5214,7 +5088,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5249,7 +5127,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5284,7 +5166,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5319,7 +5205,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5354,7 +5244,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5389,7 +5283,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5424,7 +5322,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5459,7 +5361,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5494,7 +5400,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5529,7 +5439,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5564,7 +5478,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5599,7 +5517,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5634,7 +5556,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5595,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5704,7 +5634,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5739,7 +5673,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5774,7 +5712,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5809,7 +5751,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5844,7 +5790,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5879,7 +5829,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5914,7 +5868,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5949,7 +5907,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5984,7 +5946,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6019,7 +5985,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6054,7 +6024,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6089,7 +6063,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6124,7 +6102,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6159,7 +6141,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6194,7 +6180,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6229,7 +6219,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6264,7 +6258,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6299,7 +6297,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6334,7 +6336,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6369,7 +6375,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6404,7 +6414,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6439,7 +6453,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6474,7 +6492,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6509,7 +6531,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6544,7 +6570,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6579,7 +6609,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6614,7 +6648,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6649,7 +6687,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6684,7 +6726,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6719,7 +6765,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6754,7 +6804,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6789,7 +6843,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6882,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6859,7 +6921,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6894,7 +6960,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6929,7 +6999,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6964,7 +7038,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6999,7 +7077,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7034,7 +7116,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7069,7 +7155,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7104,7 +7194,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7139,7 +7233,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7174,7 +7272,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7209,7 +7311,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7244,7 +7350,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7279,7 +7389,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7314,7 +7428,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7349,7 +7467,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7384,7 +7506,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7419,7 +7545,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7454,7 +7584,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7489,7 +7623,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7524,7 +7662,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7559,7 +7701,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7594,7 +7740,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7629,7 +7779,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7664,7 +7818,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7699,7 +7857,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7734,7 +7896,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7769,7 +7935,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7804,7 +7974,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7839,7 +8013,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7874,7 +8052,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7909,7 +8091,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7944,7 +8130,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8169,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8014,7 +8208,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8049,7 +8247,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8084,7 +8286,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8119,7 +8325,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8154,7 +8364,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8189,7 +8403,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8224,7 +8442,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8259,7 +8481,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8294,7 +8520,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8329,7 +8559,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8364,7 +8598,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8399,7 +8637,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8434,7 +8676,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8469,7 +8715,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8504,7 +8754,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8539,7 +8793,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8574,7 +8832,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8609,7 +8871,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8644,7 +8910,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8679,7 +8949,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8714,7 +8988,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8749,7 +9027,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8784,7 +9066,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8819,7 +9105,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8854,7 +9144,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8889,7 +9183,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8924,7 +9222,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8959,7 +9261,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8994,7 +9300,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9029,7 +9339,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9064,7 +9378,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9099,7 +9417,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9456,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9169,7 +9495,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9204,7 +9534,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9239,7 +9573,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9274,7 +9612,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9309,7 +9651,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9344,7 +9690,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9379,7 +9729,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9414,7 +9768,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9449,7 +9807,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9484,7 +9846,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9519,7 +9885,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9554,7 +9924,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9589,7 +9963,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9624,7 +10002,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9659,7 +10041,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9694,7 +10080,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9729,7 +10119,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9764,7 +10158,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9799,7 +10197,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9834,7 +10236,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9869,7 +10275,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9904,7 +10314,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9939,7 +10353,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9974,7 +10392,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10009,7 +10431,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10044,7 +10470,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10079,7 +10509,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10114,7 +10548,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10149,7 +10587,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10184,7 +10626,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10219,7 +10665,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10254,7 +10704,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10743,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10324,7 +10782,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10359,7 +10821,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10394,7 +10860,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10429,7 +10899,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10464,7 +10938,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10499,7 +10977,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10534,7 +11016,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10569,7 +11055,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10604,7 +11094,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10639,7 +11133,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10674,7 +11172,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10709,7 +11211,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10744,7 +11250,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +11289,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10814,7 +11328,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10849,7 +11367,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10884,7 +11406,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10919,7 +11445,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10954,7 +11484,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10989,7 +11523,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11024,7 +11562,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11059,7 +11601,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11094,7 +11640,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11129,7 +11679,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11164,7 +11718,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11199,7 +11757,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11234,7 +11796,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11269,7 +11835,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11304,7 +11874,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11339,7 +11913,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11374,7 +11952,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11409,7 +11991,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +12030,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11479,7 +12069,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11514,7 +12108,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11549,7 +12147,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11584,7 +12186,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11619,7 +12225,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11654,7 +12264,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11689,7 +12303,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11724,7 +12342,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11759,7 +12381,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11794,7 +12420,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11829,7 +12459,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11864,7 +12498,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11899,7 +12537,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11934,7 +12576,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11969,7 +12615,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12004,7 +12654,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12039,7 +12693,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12074,7 +12732,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12109,7 +12771,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12144,7 +12810,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12179,7 +12849,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12214,7 +12888,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12249,7 +12927,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12284,7 +12966,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12319,7 +13005,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12354,7 +13044,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12389,7 +13083,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12424,7 +13122,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12459,7 +13161,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12494,7 +13200,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12529,7 +13239,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12564,7 +13278,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13317,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12634,7 +13356,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12669,7 +13395,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12704,7 +13434,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12739,7 +13473,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12774,7 +13512,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12809,7 +13551,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12844,7 +13590,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12879,7 +13629,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12914,7 +13668,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12949,7 +13707,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12984,7 +13746,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13019,7 +13785,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13054,7 +13824,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13089,7 +13863,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13124,7 +13902,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13159,7 +13941,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13194,7 +13980,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13229,7 +14019,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13264,7 +14058,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13299,7 +14097,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13334,7 +14136,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13369,7 +14175,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13404,7 +14214,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13439,7 +14253,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13474,7 +14292,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13509,7 +14331,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13544,7 +14370,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13579,7 +14409,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13614,7 +14448,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13649,7 +14487,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13684,7 +14526,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13719,7 +14565,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14604,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13789,7 +14643,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13824,7 +14682,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13859,7 +14721,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13894,7 +14760,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13929,7 +14799,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13964,7 +14838,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13999,7 +14877,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14034,7 +14916,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14069,7 +14955,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14104,7 +14994,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14139,7 +15033,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14174,7 +15072,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14209,7 +15111,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14244,7 +15150,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14279,7 +15189,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14314,7 +15228,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14349,7 +15267,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14384,7 +15306,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14419,7 +15345,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14454,7 +15384,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14489,7 +15423,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14524,7 +15462,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14559,7 +15501,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14594,7 +15540,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14629,7 +15579,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14664,7 +15618,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14699,7 +15657,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14734,7 +15696,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14769,7 +15735,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14804,7 +15774,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14839,7 +15813,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14874,7 +15852,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15891,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14944,7 +15930,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14979,7 +15969,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15014,7 +16008,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15049,7 +16047,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15084,7 +16086,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15119,7 +16125,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15154,7 +16164,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15189,7 +16203,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15224,7 +16242,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15259,7 +16281,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15294,7 +16320,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15329,7 +16359,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15364,7 +16398,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15399,7 +16437,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15434,7 +16476,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15469,7 +16515,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15504,7 +16554,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15539,7 +16593,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15574,7 +16632,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15609,7 +16671,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15644,7 +16710,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15679,7 +16749,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15714,7 +16788,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15749,7 +16827,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15784,7 +16866,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15819,7 +16905,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15854,7 +16944,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15889,7 +16983,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15924,7 +17022,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest PPT.xlsx
+++ b/BackTest/2019-10-25 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5937.3475</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5937.3475</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>425</v>
@@ -521,7 +521,7 @@
         <v>4299.0838</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>425</v>
@@ -562,7 +562,7 @@
         <v>11191.6599</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>424</v>
@@ -603,7 +603,7 @@
         <v>18192.6599</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>432</v>
@@ -644,7 +644,7 @@
         <v>18192.6599</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>434</v>
@@ -685,7 +685,7 @@
         <v>18192.6599</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>434</v>
@@ -726,7 +726,7 @@
         <v>17065.4981</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>434</v>
@@ -767,7 +767,7 @@
         <v>16772.5221</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>428</v>
@@ -808,7 +808,7 @@
         <v>12648.2505</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>427</v>
@@ -849,7 +849,7 @@
         <v>10450.8662</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>426</v>
@@ -890,7 +890,7 @@
         <v>10934.3999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>422</v>
@@ -931,7 +931,7 @@
         <v>10934.3999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>431</v>
@@ -972,7 +972,7 @@
         <v>10884.3999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>431</v>
@@ -1013,7 +1013,7 @@
         <v>10170.5154</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>430</v>
@@ -1054,9 +1054,11 @@
         <v>10170.5154</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>426</v>
+      </c>
       <c r="J17" t="n">
         <v>425</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>10170.5154</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>426</v>
@@ -1134,7 +1136,7 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>426</v>
@@ -1175,7 +1177,7 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>425</v>
@@ -1216,7 +1218,7 @@
         <v>9833.592799999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>425</v>
@@ -1257,7 +1259,7 @@
         <v>10505.0229</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>423</v>
@@ -1298,7 +1300,7 @@
         <v>10505.0229</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>425</v>
@@ -1339,7 +1341,7 @@
         <v>10505.0229</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>425</v>
@@ -1380,7 +1382,7 @@
         <v>11885.3883</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>425</v>
@@ -1421,7 +1423,7 @@
         <v>12051.9883</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>430</v>
@@ -1462,9 +1464,11 @@
         <v>13524.9882</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>434</v>
+      </c>
       <c r="J27" t="n">
         <v>425</v>
       </c>
@@ -1501,9 +1505,11 @@
         <v>13524.9882</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>436</v>
+      </c>
       <c r="J28" t="n">
         <v>425</v>
       </c>
@@ -1540,9 +1546,11 @@
         <v>14552.9882</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>436</v>
+      </c>
       <c r="J29" t="n">
         <v>425</v>
       </c>
@@ -1579,7 +1587,7 @@
         <v>15126.7302</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>442</v>
@@ -1620,9 +1628,11 @@
         <v>15126.7302</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>447</v>
+      </c>
       <c r="J31" t="n">
         <v>425</v>
       </c>
@@ -1659,9 +1669,11 @@
         <v>14494.7302</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>447</v>
+      </c>
       <c r="J32" t="n">
         <v>425</v>
       </c>
@@ -1698,9 +1710,11 @@
         <v>14494.7302</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>445</v>
+      </c>
       <c r="J33" t="n">
         <v>425</v>
       </c>
@@ -1737,9 +1751,11 @@
         <v>14125.0759</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>445</v>
+      </c>
       <c r="J34" t="n">
         <v>425</v>
       </c>
@@ -1776,9 +1792,11 @@
         <v>14125.0759</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>444</v>
+      </c>
       <c r="J35" t="n">
         <v>425</v>
       </c>
@@ -1815,9 +1833,11 @@
         <v>15499.0758</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>444</v>
+      </c>
       <c r="J36" t="n">
         <v>425</v>
       </c>
@@ -1854,9 +1874,11 @@
         <v>14352.2851</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>445</v>
+      </c>
       <c r="J37" t="n">
         <v>425</v>
       </c>
@@ -1893,7 +1915,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>444</v>
@@ -1934,7 +1956,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>444</v>
@@ -1975,7 +1997,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>444</v>
@@ -2016,7 +2038,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>444</v>
@@ -2057,7 +2079,7 @@
         <v>14352.2851</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>444</v>
@@ -2098,9 +2120,11 @@
         <v>12641.0565</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>444</v>
+      </c>
       <c r="J43" t="n">
         <v>425</v>
       </c>
@@ -2137,9 +2161,11 @@
         <v>16560.0564</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>443</v>
+      </c>
       <c r="J44" t="n">
         <v>425</v>
       </c>
@@ -2176,9 +2202,11 @@
         <v>15990.8799</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>454</v>
+      </c>
       <c r="J45" t="n">
         <v>425</v>
       </c>
@@ -2215,9 +2243,11 @@
         <v>15988.1909</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>452</v>
+      </c>
       <c r="J46" t="n">
         <v>425</v>
       </c>
@@ -2254,9 +2284,11 @@
         <v>15522.6329</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>449</v>
+      </c>
       <c r="J47" t="n">
         <v>425</v>
       </c>
@@ -2293,9 +2325,11 @@
         <v>15517.6329</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>447</v>
+      </c>
       <c r="J48" t="n">
         <v>425</v>
       </c>
@@ -2332,9 +2366,11 @@
         <v>15541.7407</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>440</v>
+      </c>
       <c r="J49" t="n">
         <v>425</v>
       </c>
@@ -2371,9 +2407,11 @@
         <v>16989.7405</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>441</v>
+      </c>
       <c r="J50" t="n">
         <v>425</v>
       </c>
@@ -2410,9 +2448,11 @@
         <v>16989.7405</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>451</v>
+      </c>
       <c r="J51" t="n">
         <v>425</v>
       </c>
@@ -2449,9 +2489,11 @@
         <v>18511.6434</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>451</v>
+      </c>
       <c r="J52" t="n">
         <v>425</v>
       </c>
@@ -2488,9 +2530,11 @@
         <v>20334.3654</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>453</v>
+      </c>
       <c r="J53" t="n">
         <v>425</v>
       </c>
@@ -2839,9 +2883,11 @@
         <v>18690.3505</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>466</v>
+      </c>
       <c r="J62" t="n">
         <v>425</v>
       </c>
@@ -2878,9 +2924,11 @@
         <v>18154.23350000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>464</v>
+      </c>
       <c r="J63" t="n">
         <v>425</v>
       </c>
@@ -2917,9 +2965,11 @@
         <v>18187.23350000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>455</v>
+      </c>
       <c r="J64" t="n">
         <v>425</v>
       </c>
@@ -2956,9 +3006,11 @@
         <v>17621.91180000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>464</v>
+      </c>
       <c r="J65" t="n">
         <v>425</v>
       </c>
@@ -2995,9 +3047,11 @@
         <v>18158.0288</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>443</v>
+      </c>
       <c r="J66" t="n">
         <v>425</v>
       </c>
@@ -3034,9 +3088,11 @@
         <v>18808.58980000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>453</v>
+      </c>
       <c r="J67" t="n">
         <v>425</v>
       </c>
@@ -3073,9 +3129,11 @@
         <v>18308.0288</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>458</v>
+      </c>
       <c r="J68" t="n">
         <v>425</v>
       </c>
@@ -3112,9 +3170,11 @@
         <v>14530.358</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>454</v>
+      </c>
       <c r="J69" t="n">
         <v>425</v>
       </c>
@@ -3151,9 +3211,11 @@
         <v>14530.358</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>451</v>
+      </c>
       <c r="J70" t="n">
         <v>425</v>
       </c>
@@ -3190,9 +3252,11 @@
         <v>15065.267</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>451</v>
+      </c>
       <c r="J71" t="n">
         <v>425</v>
       </c>
@@ -3229,9 +3293,11 @@
         <v>14530.7718</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>453</v>
+      </c>
       <c r="J72" t="n">
         <v>425</v>
       </c>
@@ -3268,9 +3334,11 @@
         <v>13375.5928</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>450</v>
+      </c>
       <c r="J73" t="n">
         <v>425</v>
       </c>
@@ -3307,9 +3375,11 @@
         <v>13375.5928</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>448</v>
+      </c>
       <c r="J74" t="n">
         <v>425</v>
       </c>
@@ -3346,9 +3416,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>448</v>
+      </c>
       <c r="J75" t="n">
         <v>425</v>
       </c>
@@ -3385,9 +3457,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>449</v>
+      </c>
       <c r="J76" t="n">
         <v>425</v>
       </c>
@@ -3424,9 +3498,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>449</v>
+      </c>
       <c r="J77" t="n">
         <v>425</v>
       </c>
@@ -3463,9 +3539,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>449</v>
+      </c>
       <c r="J78" t="n">
         <v>425</v>
       </c>
@@ -3502,9 +3580,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>449</v>
+      </c>
       <c r="J79" t="n">
         <v>425</v>
       </c>
@@ -3541,9 +3621,11 @@
         <v>15032.2047</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>449</v>
+      </c>
       <c r="J80" t="n">
         <v>425</v>
       </c>
@@ -3580,9 +3662,11 @@
         <v>15720.4589</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>453</v>
+      </c>
       <c r="J81" t="n">
         <v>425</v>
       </c>
@@ -8143,7 +8227,7 @@
         <v>114546.64714868</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
@@ -8151,15 +8235,13 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.202058823529412</v>
-      </c>
-      <c r="M198" t="n">
-        <v>1.002358490566038</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8184,11 +8266,17 @@
         <v>111402.77694868</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>425</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +8305,17 @@
         <v>113125.98674868</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>425</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8250,11 +8344,17 @@
         <v>114999.22074868</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>425</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8283,11 +8383,17 @@
         <v>107387.22914868</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>425</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8316,11 +8422,17 @@
         <v>115049.64444868</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>425</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8349,15 +8461,23 @@
         <v>115049.64444868</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>425</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>1.206764705882353</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1.002358490566038</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8382,7 +8502,7 @@
         <v>119482.98644868</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8415,7 +8535,7 @@
         <v>118489.40084868</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8481,7 +8601,7 @@
         <v>119306.15084868</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8514,7 +8634,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8547,7 +8667,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8580,7 +8700,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8613,7 +8733,7 @@
         <v>135320.04904868</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8646,7 +8766,7 @@
         <v>137596.50567249</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8679,7 +8799,7 @@
         <v>137593.32147249</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8712,7 +8832,7 @@
         <v>134927.26727249</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8745,7 +8865,7 @@
         <v>134930.84427249</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8778,7 +8898,7 @@
         <v>136200.75627249</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8811,7 +8931,7 @@
         <v>136768.3037121</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8910,7 +9030,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8976,7 +9096,7 @@
         <v>130607.3962121</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9009,7 +9129,7 @@
         <v>129560.5067121</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9042,7 +9162,7 @@
         <v>129599.3407121</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9108,7 +9228,7 @@
         <v>127766.4021121</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9141,7 +9261,7 @@
         <v>123916.5567121</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9174,7 +9294,7 @@
         <v>126415.6167121</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9207,7 +9327,7 @@
         <v>126940.0498121</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9240,7 +9360,7 @@
         <v>126867.0057121</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9273,7 +9393,7 @@
         <v>126867.0057121</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9306,7 +9426,7 @@
         <v>121823.3341121</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9339,7 +9459,7 @@
         <v>123556.6624120999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9372,7 +9492,7 @@
         <v>124009.6961120999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9405,7 +9525,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9438,7 +9558,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9504,7 +9624,7 @@
         <v>123178.6946120999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9900,7 +10020,7 @@
         <v>130456.6608121</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9933,7 +10053,7 @@
         <v>130456.6608121</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10065,7 +10185,7 @@
         <v>129918.0359121</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10098,7 +10218,7 @@
         <v>131687.0359121</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10131,7 +10251,7 @@
         <v>130809.3269121</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10164,7 +10284,7 @@
         <v>130809.3269121</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10197,7 +10317,7 @@
         <v>124519.3498121</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10230,7 +10350,7 @@
         <v>120429.9042121</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10263,7 +10383,7 @@
         <v>117711.5347121</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10296,7 +10416,7 @@
         <v>116522.7047120999</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10329,7 +10449,7 @@
         <v>119610.8873120999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10362,7 +10482,7 @@
         <v>117390.8873120999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10395,7 +10515,7 @@
         <v>116552.4102120999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10461,7 +10581,7 @@
         <v>116552.4102120999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10527,7 +10647,7 @@
         <v>108153.4378120999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10560,7 +10680,7 @@
         <v>110449.8637120999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10593,7 +10713,7 @@
         <v>110849.8637120999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10758,7 +10878,7 @@
         <v>111551.6658767599</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10923,7 +11043,7 @@
         <v>110039.3829767599</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10956,7 +11076,7 @@
         <v>95039.38297675994</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11022,7 +11142,7 @@
         <v>95144.80517675994</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11055,7 +11175,7 @@
         <v>95144.80517675994</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11286,7 +11406,7 @@
         <v>89654.49947675996</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11319,7 +11439,7 @@
         <v>89662.30947675995</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11352,7 +11472,7 @@
         <v>89000.25317675996</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11385,7 +11505,7 @@
         <v>89012.25317675996</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11418,7 +11538,7 @@
         <v>89012.25317675996</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11451,7 +11571,7 @@
         <v>89227.25317675996</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11484,7 +11604,7 @@
         <v>89227.25317675996</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11517,7 +11637,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11550,7 +11670,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11583,7 +11703,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11616,7 +11736,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11649,7 +11769,7 @@
         <v>86003.98137675996</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11682,7 +11802,7 @@
         <v>84987.20337675995</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11715,7 +11835,7 @@
         <v>99032.76877675994</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11748,7 +11868,7 @@
         <v>95057.16257675995</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11781,7 +11901,7 @@
         <v>101700.1486767599</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11814,7 +11934,7 @@
         <v>101700.1486767599</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11847,7 +11967,7 @@
         <v>103945.7831767599</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11880,7 +12000,7 @@
         <v>103943.7831767599</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11913,7 +12033,7 @@
         <v>103590.7198767599</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -13497,7 +13617,7 @@
         <v>108216.0002956399</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13530,7 +13650,7 @@
         <v>108216.0002956399</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13563,7 +13683,7 @@
         <v>108452.4606956399</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13596,7 +13716,7 @@
         <v>108452.4606956399</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13893,7 +14013,7 @@
         <v>113709.4200956399</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14025,7 +14145,7 @@
         <v>115272.2624956399</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14058,7 +14178,7 @@
         <v>114317.9860956399</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14091,7 +14211,7 @@
         <v>114317.9860956399</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14124,7 +14244,7 @@
         <v>117051.7315956399</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14157,7 +14277,7 @@
         <v>113883.5507956399</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14190,7 +14310,7 @@
         <v>115455.8210956399</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14223,7 +14343,7 @@
         <v>112605.6632956399</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14256,7 +14376,7 @@
         <v>112605.6632956399</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14289,7 +14409,7 @@
         <v>112607.6632956399</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14322,7 +14442,7 @@
         <v>111548.7985956399</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14355,7 +14475,7 @@
         <v>112183.7985956399</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14388,7 +14508,7 @@
         <v>110524.5296956399</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14421,7 +14541,7 @@
         <v>112738.6062956399</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14454,7 +14574,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14487,7 +14607,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14520,7 +14640,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14553,7 +14673,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14586,7 +14706,7 @@
         <v>113163.6063956399</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14619,7 +14739,7 @@
         <v>111107.9327956399</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14652,7 +14772,7 @@
         <v>111000.9331956399</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14685,7 +14805,7 @@
         <v>111721.6628956399</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14718,7 +14838,7 @@
         <v>112813.8364956399</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14751,7 +14871,7 @@
         <v>110161.6141956399</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14784,7 +14904,7 @@
         <v>109953.1820956399</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14817,7 +14937,7 @@
         <v>112063.5457956399</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14850,7 +14970,7 @@
         <v>112063.5457956399</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14883,7 +15003,7 @@
         <v>112432.4265956399</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14916,7 +15036,7 @@
         <v>113046.9265956399</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14949,7 +15069,7 @@
         <v>112050.9106956399</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14982,7 +15102,7 @@
         <v>110527.8286956399</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15015,7 +15135,7 @@
         <v>112087.8585956399</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15048,7 +15168,7 @@
         <v>112087.8585956399</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15081,7 +15201,7 @@
         <v>112128.8762956399</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15114,7 +15234,7 @@
         <v>113368.5408956399</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15147,7 +15267,7 @@
         <v>113790.5407956399</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15180,7 +15300,7 @@
         <v>113790.5407956399</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15213,7 +15333,7 @@
         <v>110294.2220956399</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15246,7 +15366,7 @@
         <v>110294.2220956399</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15279,7 +15399,7 @@
         <v>107968.1521956399</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15312,7 +15432,7 @@
         <v>110391.2322956399</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15345,7 +15465,7 @@
         <v>107976.0545956399</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15378,7 +15498,7 @@
         <v>107477.8918956399</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15411,7 +15531,7 @@
         <v>98474.82169563988</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15444,7 +15564,7 @@
         <v>99024.82169563988</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15477,7 +15597,7 @@
         <v>99024.82169563988</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15510,7 +15630,7 @@
         <v>99786.38569563988</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15543,7 +15663,7 @@
         <v>100032.1944956399</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15576,7 +15696,7 @@
         <v>100052.0503956399</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15609,7 +15729,7 @@
         <v>100052.0503956399</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15642,7 +15762,7 @@
         <v>100055.0503956399</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15675,7 +15795,7 @@
         <v>100020.2441956399</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15708,7 +15828,7 @@
         <v>100030.2441956399</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15741,7 +15861,7 @@
         <v>92714.03419563986</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15774,7 +15894,7 @@
         <v>92716.03419563986</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15807,7 +15927,7 @@
         <v>97156.74249563986</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15840,7 +15960,7 @@
         <v>97153.03279563985</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15873,7 +15993,7 @@
         <v>97042.03279563985</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15906,7 +16026,7 @@
         <v>97143.03279563985</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15939,7 +16059,7 @@
         <v>97144.04079563986</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15972,7 +16092,7 @@
         <v>97311.69079563985</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16005,7 +16125,7 @@
         <v>97311.69079563985</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16038,7 +16158,7 @@
         <v>95511.78809563984</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16071,7 +16191,7 @@
         <v>95511.78809563984</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16104,7 +16224,7 @@
         <v>95516.90809563984</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16137,7 +16257,7 @@
         <v>95391.26709563984</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16170,7 +16290,7 @@
         <v>95381.26709563984</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16203,7 +16323,7 @@
         <v>94881.26709563984</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16236,7 +16356,7 @@
         <v>90775.66699563984</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16269,7 +16389,7 @@
         <v>90775.66699563984</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16302,7 +16422,7 @@
         <v>90776.96699563984</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16335,7 +16455,7 @@
         <v>89624.25859563984</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16401,7 +16521,7 @@
         <v>89574.25859563984</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16599,7 +16719,7 @@
         <v>94090.26247903985</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16863,7 +16983,7 @@
         <v>92315.44157903986</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17655,7 +17775,7 @@
         <v>94217.31576932986</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17919,7 +18039,7 @@
         <v>109481.1245693299</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17952,7 +18072,7 @@
         <v>106469.4778693299</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17985,7 +18105,7 @@
         <v>106466.4739693299</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18018,7 +18138,7 @@
         <v>104636.1728693299</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18051,7 +18171,7 @@
         <v>104637.1728693299</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18084,7 +18204,7 @@
         <v>104638.1728693299</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18117,7 +18237,7 @@
         <v>104639.1689693299</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18249,7 +18369,7 @@
         <v>88819.94946932988</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18282,7 +18402,7 @@
         <v>88819.94946932988</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18293,6 +18413,6 @@
       <c r="M505" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest PPT.xlsx
+++ b/BackTest/2019-10-25 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,11 +644,9 @@
         <v>18192.6599</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>425</v>
       </c>
@@ -685,11 +683,9 @@
         <v>18192.6599</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>425</v>
       </c>
@@ -726,11 +722,9 @@
         <v>17065.4981</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>425</v>
       </c>
@@ -767,11 +761,9 @@
         <v>16772.5221</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>425</v>
       </c>
@@ -808,11 +800,9 @@
         <v>12648.2505</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>425</v>
       </c>
@@ -849,11 +839,9 @@
         <v>10450.8662</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>425</v>
       </c>
@@ -890,11 +878,9 @@
         <v>10934.3999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>425</v>
       </c>
@@ -931,11 +917,9 @@
         <v>10934.3999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>425</v>
       </c>
@@ -972,11 +956,9 @@
         <v>10884.3999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>425</v>
       </c>
@@ -1013,11 +995,9 @@
         <v>10170.5154</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>425</v>
       </c>
@@ -1054,11 +1034,9 @@
         <v>10170.5154</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>425</v>
       </c>
@@ -1136,11 +1114,9 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>425</v>
       </c>
@@ -1177,11 +1153,9 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>425</v>
       </c>
@@ -1464,11 +1438,9 @@
         <v>13524.9882</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>425</v>
       </c>
@@ -1505,11 +1477,9 @@
         <v>13524.9882</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>425</v>
       </c>
@@ -1546,11 +1516,9 @@
         <v>14552.9882</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>425</v>
       </c>
@@ -1587,11 +1555,9 @@
         <v>15126.7302</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>425</v>
       </c>
@@ -1628,21 +1594,19 @@
         <v>15126.7302</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>447</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>425</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>1.046764705882353</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1669,19 +1633,11 @@
         <v>14494.7302</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>447</v>
-      </c>
-      <c r="J32" t="n">
-        <v>425</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1710,19 +1666,11 @@
         <v>14494.7302</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>445</v>
-      </c>
-      <c r="J33" t="n">
-        <v>425</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1751,19 +1699,11 @@
         <v>14125.0759</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>445</v>
-      </c>
-      <c r="J34" t="n">
-        <v>425</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1792,19 +1732,11 @@
         <v>14125.0759</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>444</v>
-      </c>
-      <c r="J35" t="n">
-        <v>425</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1765,11 @@
         <v>15499.0758</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>444</v>
-      </c>
-      <c r="J36" t="n">
-        <v>425</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1874,19 +1798,11 @@
         <v>14352.2851</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>445</v>
-      </c>
-      <c r="J37" t="n">
-        <v>425</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1831,11 @@
         <v>14352.2851</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>444</v>
-      </c>
-      <c r="J38" t="n">
-        <v>425</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1864,11 @@
         <v>14352.2851</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>444</v>
-      </c>
-      <c r="J39" t="n">
-        <v>425</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1997,19 +1897,11 @@
         <v>14352.2851</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>444</v>
-      </c>
-      <c r="J40" t="n">
-        <v>425</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2038,19 +1930,11 @@
         <v>14352.2851</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>444</v>
-      </c>
-      <c r="J41" t="n">
-        <v>425</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2079,19 +1963,11 @@
         <v>14352.2851</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>444</v>
-      </c>
-      <c r="J42" t="n">
-        <v>425</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2120,19 +1996,11 @@
         <v>12641.0565</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>444</v>
-      </c>
-      <c r="J43" t="n">
-        <v>425</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2161,19 +2029,11 @@
         <v>16560.0564</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>443</v>
-      </c>
-      <c r="J44" t="n">
-        <v>425</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2202,19 +2062,11 @@
         <v>15990.8799</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>454</v>
-      </c>
-      <c r="J45" t="n">
-        <v>425</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2243,19 +2095,11 @@
         <v>15988.1909</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>452</v>
-      </c>
-      <c r="J46" t="n">
-        <v>425</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2284,19 +2128,11 @@
         <v>15522.6329</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>449</v>
-      </c>
-      <c r="J47" t="n">
-        <v>425</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2325,19 +2161,11 @@
         <v>15517.6329</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>447</v>
-      </c>
-      <c r="J48" t="n">
-        <v>425</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2366,19 +2194,11 @@
         <v>15541.7407</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>440</v>
-      </c>
-      <c r="J49" t="n">
-        <v>425</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2407,19 +2227,11 @@
         <v>16989.7405</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>441</v>
-      </c>
-      <c r="J50" t="n">
-        <v>425</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2448,19 +2260,11 @@
         <v>16989.7405</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>451</v>
-      </c>
-      <c r="J51" t="n">
-        <v>425</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2489,19 +2293,11 @@
         <v>18511.6434</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>451</v>
-      </c>
-      <c r="J52" t="n">
-        <v>425</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2530,19 +2326,11 @@
         <v>20334.3654</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>453</v>
-      </c>
-      <c r="J53" t="n">
-        <v>425</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2571,17 +2359,11 @@
         <v>20636.3657</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>425</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2613,14 +2395,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>425</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2649,17 +2425,11 @@
         <v>13069.3875</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>425</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2688,17 +2458,11 @@
         <v>13069.3875</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>425</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2727,17 +2491,11 @@
         <v>12969.3875</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>425</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2766,17 +2524,11 @@
         <v>18215.0887</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>425</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2805,17 +2557,11 @@
         <v>17645.6127</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>425</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2844,17 +2590,11 @@
         <v>19270.3815</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>425</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2883,19 +2623,11 @@
         <v>18690.3505</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>466</v>
-      </c>
-      <c r="J62" t="n">
-        <v>425</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2924,19 +2656,11 @@
         <v>18154.23350000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>464</v>
-      </c>
-      <c r="J63" t="n">
-        <v>425</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2965,19 +2689,11 @@
         <v>18187.23350000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>455</v>
-      </c>
-      <c r="J64" t="n">
-        <v>425</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -3006,19 +2722,11 @@
         <v>17621.91180000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>464</v>
-      </c>
-      <c r="J65" t="n">
-        <v>425</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3047,19 +2755,11 @@
         <v>18158.0288</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>443</v>
-      </c>
-      <c r="J66" t="n">
-        <v>425</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3088,19 +2788,11 @@
         <v>18808.58980000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>453</v>
-      </c>
-      <c r="J67" t="n">
-        <v>425</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3129,19 +2821,11 @@
         <v>18308.0288</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>458</v>
-      </c>
-      <c r="J68" t="n">
-        <v>425</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3170,19 +2854,11 @@
         <v>14530.358</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>454</v>
-      </c>
-      <c r="J69" t="n">
-        <v>425</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3211,19 +2887,11 @@
         <v>14530.358</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>451</v>
-      </c>
-      <c r="J70" t="n">
-        <v>425</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3252,19 +2920,11 @@
         <v>15065.267</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>451</v>
-      </c>
-      <c r="J71" t="n">
-        <v>425</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3293,19 +2953,11 @@
         <v>14530.7718</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>453</v>
-      </c>
-      <c r="J72" t="n">
-        <v>425</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3334,19 +2986,11 @@
         <v>13375.5928</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>450</v>
-      </c>
-      <c r="J73" t="n">
-        <v>425</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3375,19 +3019,11 @@
         <v>13375.5928</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>448</v>
-      </c>
-      <c r="J74" t="n">
-        <v>425</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3416,19 +3052,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>448</v>
-      </c>
-      <c r="J75" t="n">
-        <v>425</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3457,19 +3085,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>449</v>
-      </c>
-      <c r="J76" t="n">
-        <v>425</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3498,19 +3118,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>449</v>
-      </c>
-      <c r="J77" t="n">
-        <v>425</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3539,19 +3151,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>449</v>
-      </c>
-      <c r="J78" t="n">
-        <v>425</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3580,19 +3184,11 @@
         <v>14914.1848</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>449</v>
-      </c>
-      <c r="J79" t="n">
-        <v>425</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3621,19 +3217,11 @@
         <v>15032.2047</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>449</v>
-      </c>
-      <c r="J80" t="n">
-        <v>425</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3662,19 +3250,11 @@
         <v>15720.4589</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>453</v>
-      </c>
-      <c r="J81" t="n">
-        <v>425</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3706,14 +3286,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>425</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3745,14 +3319,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>425</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3781,17 +3349,11 @@
         <v>14992.7399</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>425</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3820,17 +3382,11 @@
         <v>14937.9398</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>425</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3859,17 +3415,11 @@
         <v>19757.97651828</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>425</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3898,17 +3448,11 @@
         <v>17928.08751828</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>425</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3937,17 +3481,11 @@
         <v>18340.28881828001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>425</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3976,17 +3514,11 @@
         <v>18039.39601828</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>425</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4015,17 +3547,11 @@
         <v>19612.39601828</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>425</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4054,17 +3580,11 @@
         <v>19612.39601828</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>425</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4093,17 +3613,11 @@
         <v>19612.39601828</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>425</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4132,17 +3646,11 @@
         <v>19612.39601828</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>425</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4171,17 +3679,11 @@
         <v>19717.56011828001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>425</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4210,17 +3712,11 @@
         <v>18351.00691828001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>425</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4249,17 +3745,11 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>425</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4288,17 +3778,11 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>425</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4327,17 +3811,11 @@
         <v>18219.95531828001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>425</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4366,17 +3844,11 @@
         <v>18773.05231828001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>425</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4405,17 +3877,11 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>425</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4444,17 +3910,11 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>425</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4483,17 +3943,11 @@
         <v>21616.62361828001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>425</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +3979,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>425</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4561,17 +4009,11 @@
         <v>24704.13351828001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>425</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4603,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>425</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4078,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>425</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4681,14 +4111,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>425</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4144,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>425</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4177,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>425</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4798,14 +4210,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>425</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4837,14 +4243,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>425</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4876,14 +4276,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>425</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4915,14 +4309,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>425</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4954,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>425</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4993,14 +4375,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>425</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5032,14 +4408,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>425</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +4441,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>425</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5110,14 +4474,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>425</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5149,14 +4507,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>425</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5188,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>425</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5227,14 +4573,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>425</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5266,14 +4606,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>425</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5305,14 +4639,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>425</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5344,14 +4672,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>425</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5383,14 +4705,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>425</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5422,14 +4738,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>425</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5461,14 +4771,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>425</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5500,14 +4804,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>425</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5539,14 +4837,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>425</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5578,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>425</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5617,14 +4903,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>425</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5656,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>425</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5695,14 +4969,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>425</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5734,14 +5002,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>425</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5773,14 +5035,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>425</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5812,14 +5068,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>425</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5851,14 +5101,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>425</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5890,14 +5134,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>425</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5929,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>425</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5968,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>425</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6007,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>425</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6046,14 +5266,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>425</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6085,14 +5299,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>425</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6124,14 +5332,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>425</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6163,14 +5365,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>425</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6202,14 +5398,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>425</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6241,14 +5431,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>425</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6280,14 +5464,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>425</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6319,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>425</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6358,14 +5530,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>425</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6397,14 +5563,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>425</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6436,14 +5596,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>425</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6475,14 +5629,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>425</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6514,14 +5662,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>425</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6553,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>425</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6592,14 +5728,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>425</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6631,14 +5761,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>425</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +5794,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>425</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6709,14 +5827,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>425</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6748,14 +5860,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>425</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6787,14 +5893,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>425</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6826,14 +5926,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>425</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6865,14 +5959,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>425</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6904,14 +5992,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>425</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6943,14 +6025,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>425</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6982,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>425</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7021,14 +6091,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>425</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7060,14 +6124,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>425</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7099,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>425</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7138,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>425</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7177,14 +6223,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>425</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7216,14 +6256,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>425</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7255,14 +6289,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>425</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7294,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>425</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7333,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>425</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7372,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>425</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7411,14 +6421,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>425</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7450,14 +6454,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>425</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7489,14 +6487,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>425</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7528,14 +6520,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>425</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7567,14 +6553,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>425</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7606,14 +6586,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>425</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7645,14 +6619,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>425</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7684,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>425</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7723,14 +6685,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>425</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7762,14 +6718,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>425</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7801,14 +6751,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>425</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7840,14 +6784,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>425</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7879,14 +6817,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>425</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +6850,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>425</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +6883,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>425</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7996,14 +6916,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>425</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8035,14 +6949,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>425</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8074,14 +6982,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>425</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8113,14 +7015,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>425</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8152,14 +7048,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>425</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8191,14 +7081,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>425</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8230,14 +7114,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>425</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8269,14 +7147,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>425</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8308,14 +7180,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>425</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8347,14 +7213,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>425</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8386,14 +7246,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>425</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8425,14 +7279,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>425</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8461,23 +7309,15 @@
         <v>115049.64444868</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>425</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>1.206764705882353</v>
-      </c>
-      <c r="M204" t="n">
-        <v>1.002358490566038</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8502,7 +7342,7 @@
         <v>119482.98644868</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8535,7 +7375,7 @@
         <v>118489.40084868</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8634,7 +7474,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8667,7 +7507,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8700,7 +7540,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8733,7 +7573,7 @@
         <v>135320.04904868</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8766,7 +7606,7 @@
         <v>137596.50567249</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8799,7 +7639,7 @@
         <v>137593.32147249</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8832,7 +7672,7 @@
         <v>134927.26727249</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8865,7 +7705,7 @@
         <v>134930.84427249</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8898,7 +7738,7 @@
         <v>136200.75627249</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8931,7 +7771,7 @@
         <v>136768.3037121</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -9030,7 +7870,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9096,7 +7936,7 @@
         <v>130607.3962121</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9129,7 +7969,7 @@
         <v>129560.5067121</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9162,7 +8002,7 @@
         <v>129599.3407121</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9228,7 +8068,7 @@
         <v>127766.4021121</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9261,7 +8101,7 @@
         <v>123916.5567121</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9294,7 +8134,7 @@
         <v>126415.6167121</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9327,7 +8167,7 @@
         <v>126940.0498121</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9360,7 +8200,7 @@
         <v>126867.0057121</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9393,7 +8233,7 @@
         <v>126867.0057121</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9426,7 +8266,7 @@
         <v>121823.3341121</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9459,7 +8299,7 @@
         <v>123556.6624120999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9492,7 +8332,7 @@
         <v>124009.6961120999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9525,7 +8365,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9558,7 +8398,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9624,7 +8464,7 @@
         <v>123178.6946120999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -10020,7 +8860,7 @@
         <v>130456.6608121</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10053,7 +8893,7 @@
         <v>130456.6608121</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10185,7 +9025,7 @@
         <v>129918.0359121</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10218,7 +9058,7 @@
         <v>131687.0359121</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10251,7 +9091,7 @@
         <v>130809.3269121</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10284,7 +9124,7 @@
         <v>130809.3269121</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10317,7 +9157,7 @@
         <v>124519.3498121</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10350,7 +9190,7 @@
         <v>120429.9042121</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10383,7 +9223,7 @@
         <v>117711.5347121</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10416,7 +9256,7 @@
         <v>116522.7047120999</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10449,7 +9289,7 @@
         <v>119610.8873120999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10482,7 +9322,7 @@
         <v>117390.8873120999</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10515,7 +9355,7 @@
         <v>116552.4102120999</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10581,7 +9421,7 @@
         <v>116552.4102120999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10647,7 +9487,7 @@
         <v>108153.4378120999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10680,7 +9520,7 @@
         <v>110449.8637120999</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10713,7 +9553,7 @@
         <v>110849.8637120999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10878,7 +9718,7 @@
         <v>111551.6658767599</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11043,7 +9883,7 @@
         <v>110039.3829767599</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11406,7 +10246,7 @@
         <v>89654.49947675996</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11439,7 +10279,7 @@
         <v>89662.30947675995</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11472,7 +10312,7 @@
         <v>89000.25317675996</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11505,7 +10345,7 @@
         <v>89012.25317675996</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11538,7 +10378,7 @@
         <v>89012.25317675996</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11571,7 +10411,7 @@
         <v>89227.25317675996</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11604,7 +10444,7 @@
         <v>89227.25317675996</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11637,7 +10477,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11670,7 +10510,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11703,7 +10543,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11736,7 +10576,7 @@
         <v>86418.98137675996</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11769,7 +10609,7 @@
         <v>86003.98137675996</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11802,7 +10642,7 @@
         <v>84987.20337675995</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11835,7 +10675,7 @@
         <v>99032.76877675994</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11868,7 +10708,7 @@
         <v>95057.16257675995</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11901,7 +10741,7 @@
         <v>101700.1486767599</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11934,7 +10774,7 @@
         <v>101700.1486767599</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11967,7 +10807,7 @@
         <v>103945.7831767599</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12000,7 +10840,7 @@
         <v>103943.7831767599</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12033,7 +10873,7 @@
         <v>103590.7198767599</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -13617,7 +12457,7 @@
         <v>108216.0002956399</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13650,7 +12490,7 @@
         <v>108216.0002956399</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13683,7 +12523,7 @@
         <v>108452.4606956399</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13716,7 +12556,7 @@
         <v>108452.4606956399</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14013,7 +12853,7 @@
         <v>113709.4200956399</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14178,7 +13018,7 @@
         <v>114317.9860956399</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14244,7 +13084,7 @@
         <v>117051.7315956399</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14277,7 +13117,7 @@
         <v>113883.5507956399</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14310,7 +13150,7 @@
         <v>115455.8210956399</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14343,7 +13183,7 @@
         <v>112605.6632956399</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14376,7 +13216,7 @@
         <v>112605.6632956399</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14409,7 +13249,7 @@
         <v>112607.6632956399</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14442,7 +13282,7 @@
         <v>111548.7985956399</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14475,7 +13315,7 @@
         <v>112183.7985956399</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14508,7 +13348,7 @@
         <v>110524.5296956399</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14541,7 +13381,7 @@
         <v>112738.6062956399</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14574,7 +13414,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14607,7 +13447,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14640,7 +13480,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14673,7 +13513,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14706,7 +13546,7 @@
         <v>113163.6063956399</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14739,7 +13579,7 @@
         <v>111107.9327956399</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14772,7 +13612,7 @@
         <v>111000.9331956399</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14805,7 +13645,7 @@
         <v>111721.6628956399</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14838,7 +13678,7 @@
         <v>112813.8364956399</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14871,7 +13711,7 @@
         <v>110161.6141956399</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14904,7 +13744,7 @@
         <v>109953.1820956399</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14937,7 +13777,7 @@
         <v>112063.5457956399</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14970,7 +13810,7 @@
         <v>112063.5457956399</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15003,7 +13843,7 @@
         <v>112432.4265956399</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15036,7 +13876,7 @@
         <v>113046.9265956399</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15069,7 +13909,7 @@
         <v>112050.9106956399</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15102,7 +13942,7 @@
         <v>110527.8286956399</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15135,7 +13975,7 @@
         <v>112087.8585956399</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15168,7 +14008,7 @@
         <v>112087.8585956399</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15201,7 +14041,7 @@
         <v>112128.8762956399</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15234,7 +14074,7 @@
         <v>113368.5408956399</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15267,7 +14107,7 @@
         <v>113790.5407956399</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15300,7 +14140,7 @@
         <v>113790.5407956399</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15333,7 +14173,7 @@
         <v>110294.2220956399</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15366,7 +14206,7 @@
         <v>110294.2220956399</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15432,7 +14272,7 @@
         <v>110391.2322956399</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15465,7 +14305,7 @@
         <v>107976.0545956399</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15498,7 +14338,7 @@
         <v>107477.8918956399</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15531,7 +14371,7 @@
         <v>98474.82169563988</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15564,7 +14404,7 @@
         <v>99024.82169563988</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15597,7 +14437,7 @@
         <v>99024.82169563988</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15630,7 +14470,7 @@
         <v>99786.38569563988</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15663,7 +14503,7 @@
         <v>100032.1944956399</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15696,7 +14536,7 @@
         <v>100052.0503956399</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15729,7 +14569,7 @@
         <v>100052.0503956399</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15762,7 +14602,7 @@
         <v>100055.0503956399</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15795,7 +14635,7 @@
         <v>100020.2441956399</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15828,7 +14668,7 @@
         <v>100030.2441956399</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15861,7 +14701,7 @@
         <v>92714.03419563986</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15894,7 +14734,7 @@
         <v>92716.03419563986</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15927,7 +14767,7 @@
         <v>97156.74249563986</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15960,7 +14800,7 @@
         <v>97153.03279563985</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15993,7 +14833,7 @@
         <v>97042.03279563985</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16026,7 +14866,7 @@
         <v>97143.03279563985</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16257,7 +15097,7 @@
         <v>95391.26709563984</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16290,7 +15130,7 @@
         <v>95381.26709563984</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16521,7 +15361,7 @@
         <v>89574.25859563984</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16719,7 +15559,7 @@
         <v>94090.26247903985</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16983,7 +15823,7 @@
         <v>92315.44157903986</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18138,7 +16978,7 @@
         <v>104636.1728693299</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18204,7 +17044,7 @@
         <v>104638.1728693299</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18369,7 +17209,7 @@
         <v>88819.94946932988</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18402,7 +17242,7 @@
         <v>88819.94946932988</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18413,6 +17253,6 @@
       <c r="M505" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest PPT.xlsx
+++ b/BackTest/2019-10-25 BackTest PPT.xlsx
@@ -644,9 +644,11 @@
         <v>18192.6599</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>434</v>
+      </c>
       <c r="J7" t="n">
         <v>425</v>
       </c>
@@ -683,9 +685,11 @@
         <v>18192.6599</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>434</v>
+      </c>
       <c r="J8" t="n">
         <v>425</v>
       </c>
@@ -722,9 +726,11 @@
         <v>17065.4981</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>434</v>
+      </c>
       <c r="J9" t="n">
         <v>425</v>
       </c>
@@ -761,9 +767,11 @@
         <v>16772.5221</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>428</v>
+      </c>
       <c r="J10" t="n">
         <v>425</v>
       </c>
@@ -800,9 +808,11 @@
         <v>12648.2505</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>427</v>
+      </c>
       <c r="J11" t="n">
         <v>425</v>
       </c>
@@ -839,9 +849,11 @@
         <v>10450.8662</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>426</v>
+      </c>
       <c r="J12" t="n">
         <v>425</v>
       </c>
@@ -878,9 +890,11 @@
         <v>10934.3999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>422</v>
+      </c>
       <c r="J13" t="n">
         <v>425</v>
       </c>
@@ -917,9 +931,11 @@
         <v>10934.3999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>431</v>
+      </c>
       <c r="J14" t="n">
         <v>425</v>
       </c>
@@ -956,9 +972,11 @@
         <v>10884.3999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>431</v>
+      </c>
       <c r="J15" t="n">
         <v>425</v>
       </c>
@@ -995,9 +1013,11 @@
         <v>10170.5154</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>430</v>
+      </c>
       <c r="J16" t="n">
         <v>425</v>
       </c>
@@ -1034,9 +1054,11 @@
         <v>10170.5154</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>426</v>
+      </c>
       <c r="J17" t="n">
         <v>425</v>
       </c>
@@ -1114,9 +1136,11 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>426</v>
+      </c>
       <c r="J19" t="n">
         <v>425</v>
       </c>
@@ -1153,9 +1177,11 @@
         <v>9933.015499999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>425</v>
+      </c>
       <c r="J20" t="n">
         <v>425</v>
       </c>
@@ -1438,9 +1464,11 @@
         <v>13524.9882</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>434</v>
+      </c>
       <c r="J27" t="n">
         <v>425</v>
       </c>
@@ -1477,9 +1505,11 @@
         <v>13524.9882</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>436</v>
+      </c>
       <c r="J28" t="n">
         <v>425</v>
       </c>
@@ -1516,9 +1546,11 @@
         <v>14552.9882</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>436</v>
+      </c>
       <c r="J29" t="n">
         <v>425</v>
       </c>
@@ -1594,7 +1626,7 @@
         <v>15126.7302</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
@@ -1602,11 +1634,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.046764705882353</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1633,11 +1665,17 @@
         <v>14494.7302</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>425</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1666,11 +1704,17 @@
         <v>14494.7302</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>425</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1743,17 @@
         <v>14125.0759</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>425</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,11 +1782,17 @@
         <v>14125.0759</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>425</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1765,11 +1821,17 @@
         <v>15499.0758</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>425</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1798,11 +1860,17 @@
         <v>14352.2851</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>425</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1831,11 +1899,17 @@
         <v>14352.2851</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>425</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1938,17 @@
         <v>14352.2851</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>425</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1897,11 +1977,17 @@
         <v>14352.2851</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>425</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1930,11 +2016,17 @@
         <v>14352.2851</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>425</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1963,11 +2055,17 @@
         <v>14352.2851</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>425</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1996,11 +2094,17 @@
         <v>12641.0565</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>425</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2029,11 +2133,17 @@
         <v>16560.0564</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>425</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +2172,17 @@
         <v>15990.8799</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>425</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2098,8 +2214,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>425</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2131,8 +2253,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>425</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2161,11 +2289,17 @@
         <v>15517.6329</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>425</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2197,8 +2331,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>425</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2230,8 +2370,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>425</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2263,8 +2409,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>425</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2296,8 +2448,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>425</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2329,8 +2487,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>425</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2359,11 +2523,17 @@
         <v>20636.3657</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>425</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2395,8 +2565,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>425</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2425,11 +2601,17 @@
         <v>13069.3875</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>425</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2458,11 +2640,17 @@
         <v>13069.3875</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>425</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2491,11 +2679,17 @@
         <v>12969.3875</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>425</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2524,11 +2718,17 @@
         <v>18215.0887</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>425</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2557,11 +2757,17 @@
         <v>17645.6127</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>425</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2796,17 @@
         <v>19270.3815</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>425</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2623,11 +2835,17 @@
         <v>18690.3505</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>425</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2874,17 @@
         <v>18154.23350000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>425</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2689,11 +2913,17 @@
         <v>18187.23350000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>425</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2722,11 +2952,17 @@
         <v>17621.91180000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>425</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2991,17 @@
         <v>18158.0288</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>425</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +3030,17 @@
         <v>18808.58980000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>425</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +3069,17 @@
         <v>18308.0288</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>425</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2854,11 +3108,17 @@
         <v>14530.358</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>425</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2887,11 +3147,17 @@
         <v>14530.358</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>425</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2920,11 +3186,17 @@
         <v>15065.267</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>425</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2953,11 +3225,17 @@
         <v>14530.7718</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>425</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2986,11 +3264,17 @@
         <v>13375.5928</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>425</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3022,8 +3306,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>425</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3055,8 +3345,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>425</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3088,8 +3384,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>425</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3121,8 +3423,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>425</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3154,8 +3462,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>425</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3501,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>425</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3220,8 +3540,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>425</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3253,8 +3579,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>425</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3286,8 +3618,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>425</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3319,8 +3657,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>425</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3349,11 +3693,17 @@
         <v>14992.7399</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>425</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3382,11 +3732,17 @@
         <v>14937.9398</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>425</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3415,11 +3771,17 @@
         <v>19757.97651828</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>425</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3448,11 +3810,17 @@
         <v>17928.08751828</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>425</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3481,11 +3849,17 @@
         <v>18340.28881828001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>425</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3514,11 +3888,17 @@
         <v>18039.39601828</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>425</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3547,11 +3927,17 @@
         <v>19612.39601828</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>425</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3580,11 +3966,17 @@
         <v>19612.39601828</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>425</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3613,11 +4005,17 @@
         <v>19612.39601828</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>425</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3646,11 +4044,17 @@
         <v>19612.39601828</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>425</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3679,11 +4083,17 @@
         <v>19717.56011828001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>425</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3712,11 +4122,17 @@
         <v>18351.00691828001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>425</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3745,11 +4161,17 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>425</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3778,11 +4200,17 @@
         <v>18309.95531828001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>425</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3811,11 +4239,17 @@
         <v>18219.95531828001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>425</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3844,11 +4278,17 @@
         <v>18773.05231828001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>425</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +4317,17 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>425</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3910,11 +4356,17 @@
         <v>20456.05231828001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>425</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3943,11 +4395,17 @@
         <v>21616.62361828001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>425</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3979,8 +4437,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>425</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4009,11 +4473,17 @@
         <v>24704.13351828001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>425</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4045,8 +4515,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>425</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4078,8 +4554,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>425</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4111,8 +4593,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>425</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4144,8 +4632,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>425</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4177,8 +4671,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>425</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4210,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>425</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4243,8 +4749,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>425</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4276,8 +4788,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>425</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4309,8 +4827,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>425</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4866,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>425</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4375,8 +4905,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>425</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4408,8 +4944,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>425</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4441,8 +4983,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>425</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4474,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>425</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4507,8 +5061,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>425</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4540,8 +5100,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>425</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4573,8 +5139,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>425</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4606,8 +5178,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>425</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4639,8 +5217,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>425</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4672,8 +5256,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>425</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4705,8 +5295,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>425</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4738,8 +5334,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>425</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4771,8 +5373,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>425</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4804,8 +5412,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>425</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4837,8 +5451,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>425</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4870,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>425</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4903,8 +5529,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>425</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4936,8 +5568,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>425</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4969,8 +5607,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>425</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5002,8 +5646,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>425</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5035,8 +5685,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>425</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5068,8 +5724,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>425</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5101,8 +5763,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>425</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5134,8 +5802,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>425</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5167,8 +5841,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>425</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5200,8 +5880,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>425</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5233,8 +5919,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>425</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5266,8 +5958,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>425</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5299,8 +5997,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>425</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5332,8 +6036,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>425</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5365,8 +6075,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>425</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5398,8 +6114,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>425</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5431,8 +6153,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>425</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +6192,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>425</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +6231,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>425</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5530,8 +6270,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>425</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5563,8 +6309,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>425</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5596,8 +6348,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>425</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5629,8 +6387,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>425</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5662,8 +6426,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>425</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5695,8 +6465,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>425</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5728,8 +6504,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>425</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5761,8 +6543,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>425</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +6582,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>425</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5827,8 +6621,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>425</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5860,8 +6660,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>425</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5893,8 +6699,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>425</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5926,8 +6738,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>425</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5959,8 +6777,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>425</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5992,8 +6816,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>425</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6025,8 +6855,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>425</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +6894,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>425</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6933,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>425</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6972,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>425</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +7011,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>425</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +7050,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>425</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +7089,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>425</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6256,8 +7128,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>425</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6289,8 +7167,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>425</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6322,8 +7206,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>425</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6355,8 +7245,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>425</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6388,8 +7284,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>425</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6421,8 +7323,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>425</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6454,8 +7362,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>425</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6487,8 +7401,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>425</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6520,8 +7440,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>425</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6553,8 +7479,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>425</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6586,8 +7518,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>425</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +7557,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>425</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +7596,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>425</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6685,8 +7635,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>425</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6718,8 +7674,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>425</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6751,8 +7713,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>425</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6784,8 +7752,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>425</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6817,8 +7791,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>425</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6850,8 +7830,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>425</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6883,8 +7869,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>425</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6916,8 +7908,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>425</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6949,8 +7947,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>425</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6982,8 +7986,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>425</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7015,8 +8025,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>425</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7048,8 +8064,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>425</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7081,8 +8103,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>425</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7114,8 +8142,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>425</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7147,8 +8181,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>425</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7180,8 +8220,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>425</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7213,8 +8259,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>425</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7246,8 +8298,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>425</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7279,8 +8337,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>425</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7312,8 +8376,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>425</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7342,15 +8412,23 @@
         <v>119482.98644868</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>425</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>1.216176470588235</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1.002358490566038</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7375,7 +8453,7 @@
         <v>118489.40084868</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7408,7 +8486,7 @@
         <v>123381.15084868</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7441,7 +8519,7 @@
         <v>119306.15084868</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7474,7 +8552,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7507,7 +8585,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7540,7 +8618,7 @@
         <v>126485.57934868</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7573,7 +8651,7 @@
         <v>135320.04904868</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7606,7 +8684,7 @@
         <v>137596.50567249</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7639,7 +8717,7 @@
         <v>137593.32147249</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7672,7 +8750,7 @@
         <v>134927.26727249</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7705,7 +8783,7 @@
         <v>134930.84427249</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7738,7 +8816,7 @@
         <v>136200.75627249</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7771,7 +8849,7 @@
         <v>136768.3037121</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7804,7 +8882,7 @@
         <v>135271.3499121</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7837,7 +8915,7 @@
         <v>140067.7598121</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7870,7 +8948,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7903,7 +8981,7 @@
         <v>130955.2705121</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7936,7 +9014,7 @@
         <v>130607.3962121</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8002,7 +9080,7 @@
         <v>129599.3407121</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8068,7 +9146,7 @@
         <v>127766.4021121</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8398,7 +9476,7 @@
         <v>124606.5854120999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -13414,7 +14492,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13480,7 +14558,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13513,7 +14591,7 @@
         <v>113252.6062956399</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13546,7 +14624,7 @@
         <v>113163.6063956399</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
